--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F13DF01-A437-4163-B1C7-DC3E3778E623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D7612AC6-5355-43C4-9266-F744F22D6A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3928" uniqueCount="159">
   <si>
     <t>init</t>
   </si>
@@ -1571,10 +1571,10 @@
   <dimension ref="A1:AO125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF100" sqref="AF100"/>
+      <selection pane="bottomRight" activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16138,17 +16138,17 @@
       <c r="D117" s="7">
         <v>0</v>
       </c>
-      <c r="E117" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>145</v>
+      <c r="E117" s="7">
+        <v>1</v>
+      </c>
+      <c r="F117" s="7">
+        <v>1</v>
+      </c>
+      <c r="G117" s="7">
+        <v>1</v>
+      </c>
+      <c r="H117" s="7">
+        <v>1</v>
       </c>
       <c r="I117" s="7" t="s">
         <v>145</v>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874C6D24-EF90-4443-A3F7-E198A303EC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00A3DAD-4BF2-48CB-A4AF-55E9427FAC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="158">
   <si>
     <t>init</t>
   </si>
@@ -1568,10 +1568,10 @@
   <dimension ref="A1:AO124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17:S17"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17:AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3635,20 +3635,20 @@
       <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>144</v>
+      <c r="E17" s="2">
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>144</v>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
@@ -3656,8 +3656,8 @@
       <c r="K17" s="2">
         <v>1</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>144</v>
+      <c r="L17" s="2">
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <v>1</v>
@@ -3680,47 +3680,47 @@
       <c r="S17" s="2">
         <v>1</v>
       </c>
-      <c r="T17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>144</v>
+      <c r="T17" s="2">
+        <v>1</v>
+      </c>
+      <c r="U17" s="2">
+        <v>1</v>
+      </c>
+      <c r="V17" s="2">
+        <v>1</v>
+      </c>
+      <c r="W17" s="2">
+        <v>1</v>
+      </c>
+      <c r="X17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>1</v>
       </c>
       <c r="AH17" s="2" t="s">
         <v>144</v>
@@ -3760,92 +3760,92 @@
       <c r="D18" s="2">
         <v>0</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>144</v>
+      <c r="E18" s="2">
+        <v>1</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>144</v>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>144</v>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
       </c>
       <c r="M18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="2">
-        <v>0</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG18" s="2" t="s">
-        <v>144</v>
+        <v>1</v>
+      </c>
+      <c r="T18" s="2">
+        <v>1</v>
+      </c>
+      <c r="U18" s="2">
+        <v>1</v>
+      </c>
+      <c r="V18" s="2">
+        <v>1</v>
+      </c>
+      <c r="W18" s="2">
+        <v>1</v>
+      </c>
+      <c r="X18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>1</v>
       </c>
       <c r="AH18" s="2" t="s">
         <v>144</v>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00A3DAD-4BF2-48CB-A4AF-55E9427FAC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818B92DF-DA46-41E1-841A-BAEBF77F82F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="158">
   <si>
     <t>init</t>
   </si>
@@ -1568,10 +1568,10 @@
   <dimension ref="A1:AO124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17:AG18"/>
+      <selection pane="bottomRight" activeCell="T17" sqref="T17:AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3680,47 +3680,47 @@
       <c r="S17" s="2">
         <v>1</v>
       </c>
-      <c r="T17" s="2">
-        <v>1</v>
-      </c>
-      <c r="U17" s="2">
-        <v>1</v>
-      </c>
-      <c r="V17" s="2">
-        <v>1</v>
-      </c>
-      <c r="W17" s="2">
-        <v>1</v>
-      </c>
-      <c r="X17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="2">
-        <v>1</v>
+      <c r="T17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="AH17" s="2" t="s">
         <v>144</v>
@@ -3805,47 +3805,47 @@
       <c r="S18" s="2">
         <v>1</v>
       </c>
-      <c r="T18" s="2">
-        <v>1</v>
-      </c>
-      <c r="U18" s="2">
-        <v>1</v>
-      </c>
-      <c r="V18" s="2">
-        <v>1</v>
-      </c>
-      <c r="W18" s="2">
-        <v>1</v>
-      </c>
-      <c r="X18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>1</v>
+      <c r="T18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="AH18" s="2" t="s">
         <v>144</v>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818B92DF-DA46-41E1-841A-BAEBF77F82F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8838A516-D595-448F-9A90-7B34F539B7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1568,10 +1568,10 @@
   <dimension ref="A1:AO124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T17" sqref="T17:AG18"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8838A516-D595-448F-9A90-7B34F539B7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C39DFB1-E4D8-4AF2-B035-322025D46514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1571,7 +1571,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="T17" sqref="T17:AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C39DFB1-E4D8-4AF2-B035-322025D46514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EE5D6F-FBC8-4E6F-B3C1-330D568F68B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3871" uniqueCount="158">
   <si>
     <t>init</t>
   </si>
@@ -1571,7 +1571,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T17" sqref="T17:AG18"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3260,50 +3260,50 @@
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>144</v>
+      <c r="E14" s="2">
+        <v>1</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>144</v>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>144</v>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
       </c>
       <c r="M14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>144</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>154</v>
@@ -3383,52 +3383,52 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>144</v>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>144</v>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>144</v>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>144</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>154</v>
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>144</v>
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -3528,11 +3528,11 @@
       <c r="J16" s="2">
         <v>1</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>144</v>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>154</v>
@@ -3660,25 +3660,25 @@
         <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>144</v>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>154</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>154</v>
@@ -3883,52 +3883,52 @@
         <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>144</v>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>144</v>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>144</v>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
       </c>
       <c r="M19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>144</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>154</v>
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>144</v>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>154</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>154</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>154</v>
@@ -4401,7 +4401,7 @@
         <v>144</v>
       </c>
       <c r="J23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>144</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>154</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>154</v>
@@ -4651,7 +4651,7 @@
         <v>144</v>
       </c>
       <c r="J25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>144</v>
@@ -4660,25 +4660,25 @@
         <v>144</v>
       </c>
       <c r="M25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="2" t="s">
         <v>144</v>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>154</v>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>154</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>154</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>154</v>
@@ -5249,7 +5249,7 @@
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>154</v>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>154</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>154</v>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>154</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>154</v>
@@ -5766,44 +5766,44 @@
       <c r="F34" s="2">
         <v>1</v>
       </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0</v>
+      <c r="G34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="J34" s="2">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="M34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="2" t="s">
         <v>144</v>
@@ -5872,134 +5872,134 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0</v>
-      </c>
-      <c r="J35" s="4">
-        <v>1</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0</v>
-      </c>
-      <c r="L35" s="4">
-        <v>0</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="N35" s="4">
-        <v>0</v>
-      </c>
-      <c r="O35" s="4">
-        <v>0</v>
-      </c>
-      <c r="P35" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>0</v>
-      </c>
-      <c r="R35" s="4">
-        <v>0</v>
-      </c>
-      <c r="S35" s="4">
-        <v>0</v>
-      </c>
-      <c r="T35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="V35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="W35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="X35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH35" s="4" t="s">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH35" s="2" t="s">
         <v>144</v>
       </c>
       <c r="AI35" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="AJ35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AK35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AN35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO35" s="4" t="s">
+      <c r="AJ35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO35" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>155</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="4">
         <v>0</v>
@@ -6038,7 +6038,7 @@
         <v>144</v>
       </c>
       <c r="N36" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="4">
         <v>0</v>
@@ -6124,7 +6124,7 @@
     </row>
     <row r="37" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>155</v>
@@ -6163,10 +6163,10 @@
         <v>144</v>
       </c>
       <c r="N37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="4">
         <v>0</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="38" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>155</v>
@@ -6291,13 +6291,13 @@
         <v>0</v>
       </c>
       <c r="O38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="4">
         <v>0</v>
       </c>
       <c r="Q38" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="4">
         <v>0</v>
@@ -6374,7 +6374,7 @@
     </row>
     <row r="39" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>155</v>
@@ -6422,10 +6422,10 @@
         <v>0</v>
       </c>
       <c r="Q39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="4">
         <v>0</v>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="40" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>155</v>
@@ -6544,13 +6544,13 @@
         <v>0</v>
       </c>
       <c r="P40" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="4">
         <v>0</v>
       </c>
       <c r="R40" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" s="4">
         <v>0</v>
@@ -6624,7 +6624,7 @@
     </row>
     <row r="41" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>155</v>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="4">
         <v>0</v>
@@ -6678,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" s="4" t="s">
         <v>144</v>
@@ -6749,7 +6749,7 @@
     </row>
     <row r="42" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>155</v>
@@ -6803,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="4" t="s">
         <v>144</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="43" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>155</v>
@@ -6901,13 +6901,13 @@
         <v>0</v>
       </c>
       <c r="J43" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>144</v>
@@ -6997,134 +6997,134 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F44" s="2">
-        <v>1</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J44" s="2">
-        <v>1</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="M44" s="2">
-        <v>0</v>
-      </c>
-      <c r="N44" s="2">
-        <v>0</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0</v>
-      </c>
-      <c r="P44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>0</v>
-      </c>
-      <c r="R44" s="2">
-        <v>0</v>
-      </c>
-      <c r="S44" s="2">
-        <v>0</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="U44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="V44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="X44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH44" s="2" t="s">
+    <row r="44" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>1</v>
+      </c>
+      <c r="K44" s="4">
+        <v>1</v>
+      </c>
+      <c r="L44" s="4">
+        <v>1</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0</v>
+      </c>
+      <c r="O44" s="4">
+        <v>0</v>
+      </c>
+      <c r="P44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>0</v>
+      </c>
+      <c r="R44" s="4">
+        <v>0</v>
+      </c>
+      <c r="S44" s="4">
+        <v>0</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="X44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH44" s="4" t="s">
         <v>144</v>
       </c>
       <c r="AI44" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="AJ44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AK44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AN44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO44" s="2" t="s">
+      <c r="AJ44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO44" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>154</v>
@@ -17124,10 +17124,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AO124" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46:AO124 C2:AO45" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
       <formula1>"-,0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B124" xr:uid="{F7C9610C-D5FB-4D70-AEEE-43376E70EDF9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46:B124 B2:B45" xr:uid="{F7C9610C-D5FB-4D70-AEEE-43376E70EDF9}">
       <formula1>"enabled,checked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_01\C++\Product\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EE5D6F-FBC8-4E6F-B3C1-330D568F68B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BBCC2E-F950-488F-9B04-7A1EB409233D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constraints" sheetId="1" r:id="rId1"/>
@@ -500,25 +500,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -526,7 +526,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -534,7 +534,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -542,35 +542,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -578,7 +578,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -586,14 +586,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -601,14 +601,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -616,7 +616,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -624,22 +624,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1005,48 +1012,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="41">
     <dxf>
@@ -1269,7 +1276,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1571,55 +1578,55 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="34.109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="30" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="32" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="31" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="32" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="31" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="31.140625" customWidth="1"/>
-    <col min="45" max="45" width="30.28515625" customWidth="1"/>
+    <col min="44" max="44" width="31.109375" customWidth="1"/>
+    <col min="45" max="45" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
@@ -6014,19 +6021,19 @@
         <v>144</v>
       </c>
       <c r="F36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="4">
         <v>0</v>
@@ -17123,6 +17130,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46:AO124 C2:AO45" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
       <formula1>"-,0,1"</formula1>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_01\C++\Product\LaserController\LaserController\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BBCC2E-F950-488F-9B04-7A1EB409233D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DE629F9B-AF17-46BB-949A-26E5ECBB480F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constraints" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3871" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3878" uniqueCount="158">
   <si>
     <t>init</t>
   </si>
@@ -500,25 +500,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -526,7 +526,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -534,7 +534,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -542,35 +542,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -578,7 +578,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -586,14 +586,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -601,14 +601,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -616,7 +616,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -624,27 +624,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1012,48 +1012,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="41">
     <dxf>
@@ -1276,7 +1276,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1575,61 +1575,61 @@
   <dimension ref="A1:AO124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomRight" activeCell="AO57" sqref="C57:AO57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="30" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="32" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="31" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="32" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="31" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="31.109375" customWidth="1"/>
-    <col min="45" max="45" width="30.33203125" customWidth="1"/>
+    <col min="44" max="44" width="31.140625" customWidth="1"/>
+    <col min="45" max="45" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>143</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41">
       <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41">
       <c r="A6" s="1" t="s">
         <v>93</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41">
       <c r="A7" s="1" t="s">
         <v>102</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41">
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41">
       <c r="A34" s="1" t="s">
         <v>94</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41">
       <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" s="5" customFormat="1">
       <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" s="5" customFormat="1">
       <c r="A37" s="3" t="s">
         <v>40</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" s="5" customFormat="1">
       <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" s="5" customFormat="1">
       <c r="A39" s="3" t="s">
         <v>42</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" s="5" customFormat="1">
       <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" s="5" customFormat="1">
       <c r="A41" s="3" t="s">
         <v>44</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" s="5" customFormat="1">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" s="5" customFormat="1">
       <c r="A43" s="3" t="s">
         <v>94</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" s="5" customFormat="1">
       <c r="A44" s="3" t="s">
         <v>107</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41">
       <c r="A51" s="1" t="s">
         <v>119</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41">
       <c r="A53" s="1" t="s">
         <v>76</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41">
       <c r="A54" s="1" t="s">
         <v>77</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41">
       <c r="A55" s="1" t="s">
         <v>78</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41">
       <c r="A56" s="1" t="s">
         <v>96</v>
       </c>
@@ -8629,24 +8629,24 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41">
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2">
-        <v>0</v>
+      <c r="C57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="2">
-        <v>1</v>
+      <c r="F57" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>144</v>
@@ -8657,8 +8657,8 @@
       <c r="I57" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J57" s="2">
-        <v>1</v>
+      <c r="J57" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>144</v>
@@ -8666,26 +8666,26 @@
       <c r="L57" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="M57" s="2">
-        <v>0</v>
-      </c>
-      <c r="N57" s="2">
-        <v>0</v>
-      </c>
-      <c r="O57" s="2">
-        <v>0</v>
-      </c>
-      <c r="P57" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>0</v>
-      </c>
-      <c r="R57" s="2">
-        <v>0</v>
-      </c>
-      <c r="S57" s="2">
-        <v>0</v>
+      <c r="M57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="T57" s="2" t="s">
         <v>144</v>
@@ -8732,7 +8732,7 @@
       <c r="AH57" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AI57" s="7" t="s">
+      <c r="AI57" s="9" t="s">
         <v>144</v>
       </c>
       <c r="AJ57" s="2" t="s">
@@ -8754,7 +8754,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41">
       <c r="A58" s="1" t="s">
         <v>98</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41">
       <c r="A59" s="1" t="s">
         <v>99</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41">
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41">
       <c r="A61" s="1" t="s">
         <v>104</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41">
       <c r="A62" s="1" t="s">
         <v>105</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41">
       <c r="A63" s="1" t="s">
         <v>106</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41">
       <c r="A64" s="1" t="s">
         <v>108</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:41">
       <c r="A65" s="1" t="s">
         <v>109</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:41">
       <c r="A66" s="1" t="s">
         <v>110</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:41">
       <c r="A67" s="1" t="s">
         <v>111</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:41">
       <c r="A68" s="1" t="s">
         <v>112</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:41">
       <c r="A69" s="1" t="s">
         <v>113</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:41">
       <c r="A70" s="1" t="s">
         <v>114</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:41">
       <c r="A71" s="1" t="s">
         <v>115</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:41">
       <c r="A72" s="1" t="s">
         <v>116</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:41">
       <c r="A73" s="1" t="s">
         <v>117</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:41">
       <c r="A74" s="1" t="s">
         <v>118</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:41">
       <c r="A75" s="1" t="s">
         <v>139</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:41">
       <c r="A76" s="1" t="s">
         <v>122</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:41" s="8" customFormat="1">
       <c r="A77" s="6" t="s">
         <v>79</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:41" s="8" customFormat="1">
       <c r="A78" s="6" t="s">
         <v>65</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:41" s="8" customFormat="1">
       <c r="A79" s="6" t="s">
         <v>66</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:41" s="8" customFormat="1">
       <c r="A80" s="6" t="s">
         <v>56</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:41" s="8" customFormat="1">
       <c r="A81" s="6" t="s">
         <v>57</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:41" s="8" customFormat="1">
       <c r="A82" s="6" t="s">
         <v>80</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:41" s="8" customFormat="1">
       <c r="A83" s="6" t="s">
         <v>81</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:41" s="8" customFormat="1">
       <c r="A84" s="6" t="s">
         <v>82</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:41" s="8" customFormat="1">
       <c r="A85" s="6" t="s">
         <v>83</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:41" s="8" customFormat="1">
       <c r="A86" s="6" t="s">
         <v>84</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:41" s="8" customFormat="1">
       <c r="A87" s="6" t="s">
         <v>85</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:41" s="8" customFormat="1">
       <c r="A88" s="6" t="s">
         <v>86</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:41" s="8" customFormat="1">
       <c r="A89" s="6" t="s">
         <v>87</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:41" s="8" customFormat="1">
       <c r="A90" s="6" t="s">
         <v>88</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:41" s="8" customFormat="1">
       <c r="A91" s="6" t="s">
         <v>89</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:41" s="8" customFormat="1">
       <c r="A92" s="6" t="s">
         <v>90</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:41" s="8" customFormat="1">
       <c r="A93" s="6" t="s">
         <v>91</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:41" s="8" customFormat="1">
       <c r="A94" s="6" t="s">
         <v>92</v>
       </c>
@@ -13379,7 +13379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:41" s="8" customFormat="1">
       <c r="A95" s="6" t="s">
         <v>48</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:41" s="8" customFormat="1">
       <c r="A96" s="6" t="s">
         <v>49</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:41" s="8" customFormat="1">
       <c r="A97" s="6" t="s">
         <v>50</v>
       </c>
@@ -13754,7 +13754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:41" s="8" customFormat="1">
       <c r="A98" s="6" t="s">
         <v>51</v>
       </c>
@@ -13879,7 +13879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:41" s="8" customFormat="1">
       <c r="A99" s="6" t="s">
         <v>52</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:41" s="8" customFormat="1">
       <c r="A100" s="6" t="s">
         <v>53</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:41" s="8" customFormat="1">
       <c r="A101" s="6" t="s">
         <v>54</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:41" s="8" customFormat="1">
       <c r="A102" s="6" t="s">
         <v>100</v>
       </c>
@@ -14379,7 +14379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:41" s="8" customFormat="1">
       <c r="A103" s="6" t="s">
         <v>101</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:41" s="8" customFormat="1">
       <c r="A104" s="6" t="s">
         <v>120</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:41" s="8" customFormat="1">
       <c r="A105" s="6" t="s">
         <v>95</v>
       </c>
@@ -14754,7 +14754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:41" s="8" customFormat="1">
       <c r="A106" s="6" t="s">
         <v>121</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:41" s="8" customFormat="1">
       <c r="A107" s="6" t="s">
         <v>141</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:41" s="8" customFormat="1">
       <c r="A108" s="6" t="s">
         <v>140</v>
       </c>
@@ -15129,7 +15129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:41" s="8" customFormat="1">
       <c r="A109" s="6" t="s">
         <v>123</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:41" s="8" customFormat="1">
       <c r="A110" s="6" t="s">
         <v>130</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:41" s="8" customFormat="1">
       <c r="A111" s="6" t="s">
         <v>131</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:41" s="8" customFormat="1">
       <c r="A112" s="6" t="s">
         <v>132</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:41" s="8" customFormat="1">
       <c r="A113" s="6" t="s">
         <v>133</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:41" s="8" customFormat="1">
       <c r="A114" s="6" t="s">
         <v>134</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:41" s="8" customFormat="1">
       <c r="A115" s="6" t="s">
         <v>124</v>
       </c>
@@ -16004,7 +16004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:41" s="8" customFormat="1">
       <c r="A116" s="6" t="s">
         <v>125</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:41" s="8" customFormat="1">
       <c r="A117" s="6" t="s">
         <v>126</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:41" s="8" customFormat="1">
       <c r="A118" s="6" t="s">
         <v>127</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:41" s="8" customFormat="1">
       <c r="A119" s="6" t="s">
         <v>128</v>
       </c>
@@ -16504,7 +16504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:41" s="8" customFormat="1">
       <c r="A120" s="6" t="s">
         <v>129</v>
       </c>
@@ -16629,7 +16629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:41" s="8" customFormat="1">
       <c r="A121" s="6" t="s">
         <v>135</v>
       </c>
@@ -16754,7 +16754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:41" s="8" customFormat="1">
       <c r="A122" s="6" t="s">
         <v>136</v>
       </c>
@@ -16879,7 +16879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:41" s="8" customFormat="1">
       <c r="A123" s="6" t="s">
         <v>137</v>
       </c>
@@ -16889,14 +16889,14 @@
       <c r="C123" s="7">
         <v>0</v>
       </c>
-      <c r="D123" s="7">
-        <v>0</v>
-      </c>
-      <c r="E123" s="7">
-        <v>0</v>
-      </c>
-      <c r="F123" s="7">
-        <v>1</v>
+      <c r="D123" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>144</v>
@@ -16979,23 +16979,23 @@
       <c r="AG123" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="AH123" s="7" t="s">
-        <v>144</v>
+      <c r="AH123" s="7">
+        <v>0</v>
       </c>
       <c r="AI123" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="AJ123" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="AK123" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL123" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM123" s="7" t="s">
-        <v>144</v>
+      <c r="AJ123" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK123" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL123" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM123" s="7">
+        <v>0</v>
       </c>
       <c r="AN123" s="7">
         <v>0</v>
@@ -17004,7 +17004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:41" s="8" customFormat="1">
       <c r="A124" s="6" t="s">
         <v>138</v>
       </c>
@@ -17014,14 +17014,14 @@
       <c r="C124" s="7">
         <v>0</v>
       </c>
-      <c r="D124" s="7">
-        <v>0</v>
-      </c>
-      <c r="E124" s="7">
-        <v>0</v>
-      </c>
-      <c r="F124" s="7">
-        <v>0</v>
+      <c r="D124" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>144</v>
@@ -17104,23 +17104,23 @@
       <c r="AG124" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="AH124" s="7" t="s">
-        <v>144</v>
+      <c r="AH124" s="7">
+        <v>0</v>
       </c>
       <c r="AI124" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="AJ124" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="AK124" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL124" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM124" s="7" t="s">
-        <v>144</v>
+      <c r="AJ124" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK124" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL124" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM124" s="7">
+        <v>0</v>
       </c>
       <c r="AN124" s="7">
         <v>1</v>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_01\C++\Product\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE84FB4-1FFF-4A25-9CD9-9C3A608720A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F5DA3E-727A-4BD2-965B-0301B524A59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="159">
   <si>
     <t>init</t>
   </si>
@@ -1591,10 +1591,10 @@
   <dimension ref="A1:AO124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S58" sqref="S58"/>
+      <selection pane="bottomRight" activeCell="S73" sqref="S73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10542,8 +10542,8 @@
       <c r="G72" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H72" s="2">
-        <v>1</v>
+      <c r="H72" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>143</v>
@@ -10557,26 +10557,26 @@
       <c r="L72" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="M72" s="2">
-        <v>0</v>
-      </c>
-      <c r="N72" s="2">
-        <v>0</v>
-      </c>
-      <c r="O72" s="2">
-        <v>0</v>
-      </c>
-      <c r="P72" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="2">
-        <v>0</v>
-      </c>
-      <c r="R72" s="2">
-        <v>0</v>
-      </c>
-      <c r="S72" s="2">
-        <v>0</v>
+      <c r="M72" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="T72" s="2" t="s">
         <v>143</v>
@@ -10667,8 +10667,8 @@
       <c r="G73" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H73" s="2">
-        <v>1</v>
+      <c r="H73" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>143</v>
@@ -10682,26 +10682,26 @@
       <c r="L73" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="M73" s="2">
-        <v>0</v>
-      </c>
-      <c r="N73" s="2">
-        <v>0</v>
-      </c>
-      <c r="O73" s="2">
-        <v>0</v>
-      </c>
-      <c r="P73" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="2">
-        <v>0</v>
-      </c>
-      <c r="R73" s="2">
-        <v>0</v>
-      </c>
-      <c r="S73" s="2">
-        <v>0</v>
+      <c r="M73" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="S73" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="T73" s="2" t="s">
         <v>143</v>
@@ -17148,10 +17148,10 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46:AO124 C2:AO45" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AO124" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
       <formula1>"-,0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46:B124 B2:B45" xr:uid="{F7C9610C-D5FB-4D70-AEEE-43376E70EDF9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B124" xr:uid="{F7C9610C-D5FB-4D70-AEEE-43376E70EDF9}">
       <formula1>"enabled,checked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_01\C++\Product\LaserController\LaserController\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F5DA3E-727A-4BD2-965B-0301B524A59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{83DBE10C-6B5D-4716-9C17-B53E06D10F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constraints" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4196" uniqueCount="168">
   <si>
     <t>init</t>
   </si>
@@ -511,30 +511,57 @@
     <t>-</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
+  <si>
+    <t>Config::UserRegister::scanLaserPowerItem()</t>
+  </si>
+  <si>
+    <t>Config::UserRegister::maxScanGrayRatioItem()</t>
+  </si>
+  <si>
+    <t>Config::UserRegister::minScanGrayRatioItem()</t>
+  </si>
+  <si>
+    <t>Config::UserRegister::defaultMaxCuttingPowerItem()</t>
+  </si>
+  <si>
+    <t>Config::UserRegister::defaultMinCuttingPowerItem()</t>
+  </si>
+  <si>
+    <t>Config::UserRegister::spotShotPowerItem()</t>
+  </si>
+  <si>
+    <t>m_doubleSpinBoxDistanceX</t>
+  </si>
+  <si>
+    <t>m_doubleSpinBoxDistanceY</t>
+  </si>
+  <si>
+    <t>m_doubleSpinBoxDistanceZ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -542,7 +569,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -550,7 +577,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -558,35 +585,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -594,7 +621,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -602,14 +629,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -617,14 +644,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -632,7 +659,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -640,27 +667,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1028,48 +1055,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="41">
     <dxf>
@@ -1242,8 +1269,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO124">
-  <autoFilter ref="A1:AO124" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO133">
+  <autoFilter ref="A1:AO133" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="states" totalsRowLabel="Total" dataDxfId="40"/>
     <tableColumn id="22" xr3:uid="{64DA4EF6-7838-4458-9526-2EDCDDECD7E6}" name="property" dataDxfId="39"/>
@@ -1292,7 +1319,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1588,64 +1615,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO124"/>
+  <dimension ref="A1:AO133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AD89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S73" sqref="S73"/>
+      <selection pane="bottomRight" activeCell="C130" sqref="C130:AG133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="30" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="32" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="31" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="32" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="31" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="31.109375" customWidth="1"/>
-    <col min="45" max="45" width="30.33203125" customWidth="1"/>
+    <col min="44" max="44" width="31.140625" customWidth="1"/>
+    <col min="45" max="45" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>142</v>
       </c>
@@ -1770,7 +1797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41">
       <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
@@ -1895,7 +1922,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
@@ -2020,7 +2047,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
@@ -2145,7 +2172,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -2270,7 +2297,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41">
       <c r="A6" s="1" t="s">
         <v>93</v>
       </c>
@@ -2395,7 +2422,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -2520,7 +2547,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
@@ -2645,7 +2672,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
@@ -2770,7 +2797,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -2895,7 +2922,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41">
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
@@ -3020,7 +3047,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
@@ -3145,7 +3172,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
@@ -3270,7 +3297,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -3395,7 +3422,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -3520,7 +3547,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -3645,7 +3672,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -3683,25 +3710,25 @@
         <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>143</v>
@@ -3770,7 +3797,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -3895,7 +3922,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -4020,7 +4047,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -4145,7 +4172,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -4270,7 +4297,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -4395,7 +4422,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -4520,7 +4547,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -4645,7 +4672,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -4770,7 +4797,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
@@ -4895,7 +4922,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -5020,7 +5047,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -5145,7 +5172,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -5270,7 +5297,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -5395,7 +5422,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
@@ -5520,7 +5547,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
@@ -5645,7 +5672,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
@@ -5770,7 +5797,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41">
       <c r="A34" s="1" t="s">
         <v>94</v>
       </c>
@@ -5895,7 +5922,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41">
       <c r="A35" s="1" t="s">
         <v>106</v>
       </c>
@@ -6020,7 +6047,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" s="5" customFormat="1">
       <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
@@ -6145,7 +6172,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" s="5" customFormat="1">
       <c r="A37" s="3" t="s">
         <v>40</v>
       </c>
@@ -6270,7 +6297,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" s="5" customFormat="1">
       <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
@@ -6395,7 +6422,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" s="5" customFormat="1">
       <c r="A39" s="3" t="s">
         <v>42</v>
       </c>
@@ -6520,7 +6547,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" s="5" customFormat="1">
       <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
@@ -6645,7 +6672,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" s="5" customFormat="1">
       <c r="A41" s="3" t="s">
         <v>44</v>
       </c>
@@ -6770,7 +6797,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" s="5" customFormat="1">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -6895,7 +6922,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" s="5" customFormat="1">
       <c r="A43" s="3" t="s">
         <v>94</v>
       </c>
@@ -7020,7 +7047,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" s="5" customFormat="1">
       <c r="A44" s="3" t="s">
         <v>106</v>
       </c>
@@ -7145,7 +7172,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -7270,7 +7297,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
@@ -7395,7 +7422,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -7520,7 +7547,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -7645,7 +7672,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -7770,7 +7797,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -7895,7 +7922,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41">
       <c r="A51" s="1" t="s">
         <v>118</v>
       </c>
@@ -8020,7 +8047,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
@@ -8145,7 +8172,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41">
       <c r="A53" s="1" t="s">
         <v>76</v>
       </c>
@@ -8270,7 +8297,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41">
       <c r="A54" s="1" t="s">
         <v>77</v>
       </c>
@@ -8395,7 +8422,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41">
       <c r="A55" s="1" t="s">
         <v>78</v>
       </c>
@@ -8520,7 +8547,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41">
       <c r="A56" s="1" t="s">
         <v>96</v>
       </c>
@@ -8645,7 +8672,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41">
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
@@ -8770,7 +8797,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41">
       <c r="A58" s="1" t="s">
         <v>157</v>
       </c>
@@ -8895,7 +8922,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41">
       <c r="A59" s="1" t="s">
         <v>98</v>
       </c>
@@ -9020,7 +9047,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41">
       <c r="A60" s="1" t="s">
         <v>102</v>
       </c>
@@ -9145,7 +9172,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41">
       <c r="A61" s="1" t="s">
         <v>103</v>
       </c>
@@ -9270,7 +9297,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41">
       <c r="A62" s="1" t="s">
         <v>104</v>
       </c>
@@ -9395,7 +9422,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41">
       <c r="A63" s="1" t="s">
         <v>105</v>
       </c>
@@ -9520,7 +9547,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41">
       <c r="A64" s="1" t="s">
         <v>107</v>
       </c>
@@ -9645,7 +9672,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:41">
       <c r="A65" s="1" t="s">
         <v>108</v>
       </c>
@@ -9770,7 +9797,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:41">
       <c r="A66" s="1" t="s">
         <v>109</v>
       </c>
@@ -9895,7 +9922,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:41">
       <c r="A67" s="1" t="s">
         <v>110</v>
       </c>
@@ -10020,7 +10047,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:41">
       <c r="A68" s="1" t="s">
         <v>111</v>
       </c>
@@ -10145,7 +10172,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:41">
       <c r="A69" s="1" t="s">
         <v>112</v>
       </c>
@@ -10270,7 +10297,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:41">
       <c r="A70" s="1" t="s">
         <v>113</v>
       </c>
@@ -10395,7 +10422,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:41">
       <c r="A71" s="1" t="s">
         <v>114</v>
       </c>
@@ -10520,7 +10547,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:41">
       <c r="A72" s="1" t="s">
         <v>115</v>
       </c>
@@ -10645,7 +10672,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:41">
       <c r="A73" s="1" t="s">
         <v>116</v>
       </c>
@@ -10770,7 +10797,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:41">
       <c r="A74" s="1" t="s">
         <v>117</v>
       </c>
@@ -10895,7 +10922,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:41">
       <c r="A75" s="1" t="s">
         <v>138</v>
       </c>
@@ -11020,7 +11047,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:41">
       <c r="A76" s="1" t="s">
         <v>121</v>
       </c>
@@ -11145,7 +11172,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:41" s="8" customFormat="1">
       <c r="A77" s="6" t="s">
         <v>79</v>
       </c>
@@ -11270,7 +11297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:41" s="8" customFormat="1">
       <c r="A78" s="6" t="s">
         <v>65</v>
       </c>
@@ -11395,7 +11422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:41" s="8" customFormat="1">
       <c r="A79" s="6" t="s">
         <v>66</v>
       </c>
@@ -11520,7 +11547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:41" s="8" customFormat="1">
       <c r="A80" s="6" t="s">
         <v>56</v>
       </c>
@@ -11645,7 +11672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:41" s="8" customFormat="1">
       <c r="A81" s="6" t="s">
         <v>57</v>
       </c>
@@ -11770,7 +11797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:41" s="8" customFormat="1">
       <c r="A82" s="6" t="s">
         <v>80</v>
       </c>
@@ -11895,7 +11922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:41" s="8" customFormat="1">
       <c r="A83" s="6" t="s">
         <v>81</v>
       </c>
@@ -12020,7 +12047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:41" s="8" customFormat="1">
       <c r="A84" s="6" t="s">
         <v>82</v>
       </c>
@@ -12145,7 +12172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:41" s="8" customFormat="1">
       <c r="A85" s="6" t="s">
         <v>83</v>
       </c>
@@ -12270,7 +12297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:41" s="8" customFormat="1">
       <c r="A86" s="6" t="s">
         <v>84</v>
       </c>
@@ -12395,7 +12422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:41" s="8" customFormat="1">
       <c r="A87" s="6" t="s">
         <v>85</v>
       </c>
@@ -12520,7 +12547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:41" s="8" customFormat="1">
       <c r="A88" s="6" t="s">
         <v>86</v>
       </c>
@@ -12645,7 +12672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:41" s="8" customFormat="1">
       <c r="A89" s="6" t="s">
         <v>87</v>
       </c>
@@ -12770,7 +12797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:41" s="8" customFormat="1">
       <c r="A90" s="6" t="s">
         <v>88</v>
       </c>
@@ -12895,7 +12922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:41" s="8" customFormat="1">
       <c r="A91" s="6" t="s">
         <v>89</v>
       </c>
@@ -13020,7 +13047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:41" s="8" customFormat="1">
       <c r="A92" s="6" t="s">
         <v>90</v>
       </c>
@@ -13145,7 +13172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:41" s="8" customFormat="1">
       <c r="A93" s="6" t="s">
         <v>91</v>
       </c>
@@ -13270,7 +13297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:41" s="8" customFormat="1">
       <c r="A94" s="6" t="s">
         <v>92</v>
       </c>
@@ -13395,7 +13422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:41" s="8" customFormat="1">
       <c r="A95" s="6" t="s">
         <v>48</v>
       </c>
@@ -13520,7 +13547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:41" s="8" customFormat="1">
       <c r="A96" s="6" t="s">
         <v>49</v>
       </c>
@@ -13645,7 +13672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:41" s="8" customFormat="1">
       <c r="A97" s="6" t="s">
         <v>50</v>
       </c>
@@ -13770,7 +13797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:41" s="8" customFormat="1">
       <c r="A98" s="6" t="s">
         <v>51</v>
       </c>
@@ -13895,7 +13922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:41" s="8" customFormat="1">
       <c r="A99" s="6" t="s">
         <v>52</v>
       </c>
@@ -14020,7 +14047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:41" s="8" customFormat="1">
       <c r="A100" s="6" t="s">
         <v>53</v>
       </c>
@@ -14145,7 +14172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:41" s="8" customFormat="1">
       <c r="A101" s="6" t="s">
         <v>54</v>
       </c>
@@ -14270,7 +14297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:41" s="8" customFormat="1">
       <c r="A102" s="6" t="s">
         <v>99</v>
       </c>
@@ -14395,7 +14422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:41" s="8" customFormat="1">
       <c r="A103" s="6" t="s">
         <v>100</v>
       </c>
@@ -14520,7 +14547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:41" s="8" customFormat="1">
       <c r="A104" s="6" t="s">
         <v>119</v>
       </c>
@@ -14645,7 +14672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:41" s="8" customFormat="1">
       <c r="A105" s="6" t="s">
         <v>95</v>
       </c>
@@ -14770,7 +14797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:41" s="8" customFormat="1">
       <c r="A106" s="6" t="s">
         <v>120</v>
       </c>
@@ -14895,7 +14922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:41" s="8" customFormat="1">
       <c r="A107" s="6" t="s">
         <v>140</v>
       </c>
@@ -15020,7 +15047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:41" s="8" customFormat="1">
       <c r="A108" s="6" t="s">
         <v>139</v>
       </c>
@@ -15145,7 +15172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:41" s="8" customFormat="1">
       <c r="A109" s="6" t="s">
         <v>122</v>
       </c>
@@ -15270,7 +15297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:41" s="8" customFormat="1">
       <c r="A110" s="6" t="s">
         <v>129</v>
       </c>
@@ -15395,7 +15422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:41" s="8" customFormat="1">
       <c r="A111" s="6" t="s">
         <v>130</v>
       </c>
@@ -15520,7 +15547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:41" s="8" customFormat="1">
       <c r="A112" s="6" t="s">
         <v>131</v>
       </c>
@@ -15645,7 +15672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:41" s="8" customFormat="1">
       <c r="A113" s="6" t="s">
         <v>132</v>
       </c>
@@ -15658,20 +15685,20 @@
       <c r="D113" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E113" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I113" s="7" t="s">
-        <v>143</v>
+      <c r="E113" s="7">
+        <v>1</v>
+      </c>
+      <c r="F113" s="7">
+        <v>1</v>
+      </c>
+      <c r="G113" s="7">
+        <v>1</v>
+      </c>
+      <c r="H113" s="7">
+        <v>1</v>
+      </c>
+      <c r="I113" s="7">
+        <v>1</v>
       </c>
       <c r="J113" s="7" t="s">
         <v>143</v>
@@ -15745,32 +15772,32 @@
       <c r="AG113" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="AH113" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI113" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ113" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK113" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL113" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM113" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN113" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO113" s="7">
-        <v>1</v>
+      <c r="AH113" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI113" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ113" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK113" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL113" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM113" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN113" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO113" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="114" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:41" s="8" customFormat="1">
       <c r="A114" s="6" t="s">
         <v>133</v>
       </c>
@@ -15895,7 +15922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:41" s="8" customFormat="1">
       <c r="A115" s="6" t="s">
         <v>123</v>
       </c>
@@ -16020,7 +16047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:41" s="8" customFormat="1">
       <c r="A116" s="6" t="s">
         <v>124</v>
       </c>
@@ -16145,7 +16172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:41" s="8" customFormat="1">
       <c r="A117" s="6" t="s">
         <v>125</v>
       </c>
@@ -16270,7 +16297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:41" s="8" customFormat="1">
       <c r="A118" s="6" t="s">
         <v>126</v>
       </c>
@@ -16395,7 +16422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:41" s="8" customFormat="1">
       <c r="A119" s="6" t="s">
         <v>127</v>
       </c>
@@ -16520,7 +16547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:41" s="8" customFormat="1">
       <c r="A120" s="6" t="s">
         <v>128</v>
       </c>
@@ -16645,7 +16672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:41" s="8" customFormat="1">
       <c r="A121" s="6" t="s">
         <v>134</v>
       </c>
@@ -16770,7 +16797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:41" s="8" customFormat="1">
       <c r="A122" s="6" t="s">
         <v>135</v>
       </c>
@@ -16895,7 +16922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:41" s="8" customFormat="1">
       <c r="A123" s="6" t="s">
         <v>136</v>
       </c>
@@ -17020,7 +17047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:41" s="8" customFormat="1">
       <c r="A124" s="6" t="s">
         <v>137</v>
       </c>
@@ -17143,15 +17170,1140 @@
       </c>
       <c r="AO124" s="7">
         <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:41">
+      <c r="A125" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="R125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="V125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="W125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="X125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH125" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI125" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ125" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK125" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL125" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM125" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN125" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO125" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:41">
+      <c r="A126" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="R126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="V126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="W126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="X126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH126" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI126" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ126" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK126" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL126" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM126" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN126" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO126" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:41">
+      <c r="A127" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="R127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="V127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="W127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="X127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH127" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI127" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ127" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK127" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL127" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM127" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN127" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO127" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:41">
+      <c r="A128" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="R128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="V128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="W128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="X128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH128" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI128" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ128" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK128" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL128" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM128" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN128" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO128" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:41">
+      <c r="A129" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C129" s="2">
+        <v>0</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="R129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="V129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="W129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="X129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH129" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI129" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ129" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK129" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL129" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM129" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN129" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO129" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:41">
+      <c r="A130" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C130" s="2">
+        <v>0</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="R130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="V130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="W130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="X130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH130" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI130" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ130" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK130" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL130" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM130" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN130" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO130" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:41">
+      <c r="A131" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C131" s="2">
+        <v>1</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="R131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="V131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="W131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="X131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH131" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI131" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ131" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK131" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL131" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM131" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN131" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO131" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:41">
+      <c r="A132" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C132" s="2">
+        <v>2</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="R132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="V132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="W132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="X132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH132" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI132" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ132" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK132" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL132" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM132" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN132" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO132" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:41">
+      <c r="A133" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C133" s="2">
+        <v>3</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="R133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="V133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="W133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="X133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI133" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ133" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK133" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL133" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM133" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN133" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO133" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AO124" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AO133" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
       <formula1>"-,0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B124" xr:uid="{F7C9610C-D5FB-4D70-AEEE-43376E70EDF9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B133" xr:uid="{F7C9610C-D5FB-4D70-AEEE-43376E70EDF9}">
       <formula1>"enabled,checked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{83DBE10C-6B5D-4716-9C17-B53E06D10F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEE199A-301E-4690-8CBE-206C97B681C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4196" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4190" uniqueCount="168">
   <si>
     <t>init</t>
   </si>
@@ -1618,10 +1618,10 @@
   <dimension ref="A1:AO133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C130" sqref="C130:AG133"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3585,25 +3585,25 @@
         <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>143</v>
@@ -4435,50 +4435,50 @@
       <c r="D23" s="2">
         <v>0</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>143</v>
+      <c r="E23" s="2">
+        <v>1</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>143</v>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>143</v>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="2" t="s">
         <v>143</v>
@@ -17930,7 +17930,7 @@
         <v>153</v>
       </c>
       <c r="C131" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>143</v>
@@ -18055,7 +18055,7 @@
         <v>153</v>
       </c>
       <c r="C132" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>143</v>
@@ -18180,7 +18180,7 @@
         <v>153</v>
       </c>
       <c r="C133" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>143</v>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_01\C++\Product\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F17BC6-70E1-430C-A28B-08A99DC946E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ED7AD0-EFAE-4EE2-BB81-02A4C8D4F0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4201" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4212" uniqueCount="171">
   <si>
     <t>init</t>
   </si>
@@ -544,7 +544,11 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>m_ui-&gt;actionSelecteAll</t>
+    <t>m_ui-&gt;actionSelectAll</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_ui-&gt;actionInvertSelection</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1281,8 +1285,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO134">
-  <autoFilter ref="A1:AO134" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO135">
+  <autoFilter ref="A1:AO135" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="states" totalsRowLabel="Total" dataDxfId="40"/>
     <tableColumn id="22" xr3:uid="{64DA4EF6-7838-4458-9526-2EDCDDECD7E6}" name="property" dataDxfId="39"/>
@@ -1627,13 +1631,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO134"/>
+  <dimension ref="A1:AO135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AG26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="A49" sqref="A49:A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7686,10 +7690,10 @@
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>152</v>
+        <v>170</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -7697,92 +7701,92 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>142</v>
+      <c r="E49" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="F49" s="2">
-        <v>0</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>142</v>
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
       </c>
       <c r="H49" s="2">
         <v>1</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>142</v>
+      <c r="I49" s="2">
+        <v>0</v>
       </c>
       <c r="J49" s="2">
-        <v>0</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>142</v>
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>1</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
       </c>
       <c r="M49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="2">
-        <v>0</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="U49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="V49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="X49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG49" s="2" t="s">
-        <v>142</v>
+        <v>1</v>
+      </c>
+      <c r="T49" s="2">
+        <v>1</v>
+      </c>
+      <c r="U49" s="2">
+        <v>0</v>
+      </c>
+      <c r="V49" s="2">
+        <v>1</v>
+      </c>
+      <c r="W49" s="2">
+        <v>0</v>
+      </c>
+      <c r="X49" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="2">
+        <v>0</v>
       </c>
       <c r="AH49" s="2" t="s">
         <v>142</v>
@@ -7811,7 +7815,7 @@
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>152</v>
@@ -7936,7 +7940,7 @@
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>152</v>
@@ -7951,19 +7955,19 @@
         <v>142</v>
       </c>
       <c r="F51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>142</v>
+      <c r="H51" s="2">
+        <v>1</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>142</v>
       </c>
       <c r="J51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>142</v>
@@ -8061,7 +8065,7 @@
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>152</v>
@@ -8087,8 +8091,8 @@
       <c r="I52" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>142</v>
+      <c r="J52" s="2">
+        <v>1</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>142</v>
@@ -8186,7 +8190,7 @@
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>152</v>
@@ -8212,8 +8216,8 @@
       <c r="I53" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J53" s="2">
-        <v>1</v>
+      <c r="J53" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>142</v>
@@ -8311,7 +8315,7 @@
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>152</v>
@@ -8326,19 +8330,19 @@
         <v>142</v>
       </c>
       <c r="F54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H54" s="2">
-        <v>1</v>
+      <c r="H54" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>142</v>
       </c>
       <c r="J54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>142</v>
@@ -8436,7 +8440,7 @@
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>152</v>
@@ -8451,19 +8455,19 @@
         <v>142</v>
       </c>
       <c r="F55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>142</v>
+      <c r="H55" s="2">
+        <v>1</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>142</v>
       </c>
       <c r="J55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>142</v>
@@ -8561,7 +8565,7 @@
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>152</v>
@@ -8686,7 +8690,7 @@
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>152</v>
@@ -8811,22 +8815,22 @@
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>142</v>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>142</v>
+      <c r="F58" s="2">
+        <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>142</v>
@@ -8837,8 +8841,8 @@
       <c r="I58" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>142</v>
+      <c r="J58" s="2">
+        <v>1</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>142</v>
@@ -8846,26 +8850,26 @@
       <c r="L58" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M58" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>142</v>
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>0</v>
+      </c>
+      <c r="R58" s="2">
+        <v>0</v>
+      </c>
+      <c r="S58" s="2">
+        <v>0</v>
       </c>
       <c r="T58" s="2" t="s">
         <v>142</v>
@@ -8912,7 +8916,7 @@
       <c r="AH58" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AI58" s="9" t="s">
+      <c r="AI58" s="7" t="s">
         <v>142</v>
       </c>
       <c r="AJ58" s="2" t="s">
@@ -8936,22 +8940,22 @@
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>142</v>
@@ -8963,7 +8967,7 @@
         <v>142</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>142</v>
@@ -8972,25 +8976,25 @@
         <v>142</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="T59" s="2" t="s">
         <v>142</v>
@@ -9037,7 +9041,7 @@
       <c r="AH59" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AI59" s="7" t="s">
+      <c r="AI59" s="9" t="s">
         <v>142</v>
       </c>
       <c r="AJ59" s="2" t="s">
@@ -9056,27 +9060,27 @@
         <v>142</v>
       </c>
       <c r="AO59" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="2">
-        <v>0</v>
-      </c>
-      <c r="D60" s="2">
-        <v>0</v>
+      <c r="C60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F60" s="2">
-        <v>1</v>
+      <c r="F60" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>142</v>
@@ -9087,8 +9091,8 @@
       <c r="I60" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J60" s="2">
-        <v>1</v>
+      <c r="J60" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>142</v>
@@ -9096,26 +9100,26 @@
       <c r="L60" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M60" s="2">
-        <v>0</v>
-      </c>
-      <c r="N60" s="2">
-        <v>0</v>
-      </c>
-      <c r="O60" s="2">
-        <v>0</v>
-      </c>
-      <c r="P60" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>0</v>
-      </c>
-      <c r="R60" s="2">
-        <v>0</v>
-      </c>
-      <c r="S60" s="2">
-        <v>0</v>
+      <c r="M60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="T60" s="2" t="s">
         <v>142</v>
@@ -9181,12 +9185,12 @@
         <v>142</v>
       </c>
       <c r="AO60" s="2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>152</v>
@@ -9311,7 +9315,7 @@
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>152</v>
@@ -9436,7 +9440,7 @@
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>152</v>
@@ -9561,7 +9565,7 @@
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>152</v>
@@ -9686,7 +9690,7 @@
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>152</v>
@@ -9712,8 +9716,8 @@
       <c r="I65" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>142</v>
+      <c r="J65" s="2">
+        <v>1</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>142</v>
@@ -9811,7 +9815,7 @@
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>152</v>
@@ -9936,7 +9940,7 @@
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>152</v>
@@ -10061,7 +10065,7 @@
     </row>
     <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>152</v>
@@ -10186,7 +10190,7 @@
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>152</v>
@@ -10311,7 +10315,7 @@
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>152</v>
@@ -10436,7 +10440,7 @@
     </row>
     <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>152</v>
@@ -10451,19 +10455,19 @@
         <v>142</v>
       </c>
       <c r="F71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H71" s="2">
-        <v>1</v>
+      <c r="H71" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J71" s="2">
-        <v>0</v>
+      <c r="J71" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>142</v>
@@ -10561,7 +10565,7 @@
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>152</v>
@@ -10686,7 +10690,7 @@
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>152</v>
@@ -10706,8 +10710,8 @@
       <c r="G73" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>157</v>
+      <c r="H73" s="2">
+        <v>1</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>142</v>
@@ -10721,26 +10725,26 @@
       <c r="L73" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M73" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="R73" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="S73" s="2" t="s">
-        <v>157</v>
+      <c r="M73" s="2">
+        <v>0</v>
+      </c>
+      <c r="N73" s="2">
+        <v>0</v>
+      </c>
+      <c r="O73" s="2">
+        <v>0</v>
+      </c>
+      <c r="P73" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>0</v>
+      </c>
+      <c r="R73" s="2">
+        <v>0</v>
+      </c>
+      <c r="S73" s="2">
+        <v>0</v>
       </c>
       <c r="T73" s="2" t="s">
         <v>142</v>
@@ -10811,7 +10815,7 @@
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>152</v>
@@ -10936,7 +10940,7 @@
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>152</v>
@@ -10956,8 +10960,8 @@
       <c r="G75" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H75" s="2">
-        <v>1</v>
+      <c r="H75" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>142</v>
@@ -10971,26 +10975,26 @@
       <c r="L75" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M75" s="2">
-        <v>0</v>
-      </c>
-      <c r="N75" s="2">
-        <v>0</v>
-      </c>
-      <c r="O75" s="2">
-        <v>0</v>
-      </c>
-      <c r="P75" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="2">
-        <v>0</v>
-      </c>
-      <c r="R75" s="2">
-        <v>0</v>
-      </c>
-      <c r="S75" s="2">
-        <v>0</v>
+      <c r="M75" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="T75" s="2" t="s">
         <v>142</v>
@@ -11061,7 +11065,7 @@
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>152</v>
@@ -11186,7 +11190,7 @@
     </row>
     <row r="77" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>152</v>
@@ -11310,133 +11314,133 @@
       </c>
     </row>
     <row r="78" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="7" t="s">
+      <c r="A78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C78" s="7">
-        <v>0</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="N78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="O78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="R78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="S78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="T78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="U78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="V78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="W78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="X78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG78" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH78" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI78" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ78" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK78" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL78" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM78" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN78" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO78" s="7">
-        <v>1</v>
+      <c r="C78" s="2">
+        <v>0</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M78" s="2">
+        <v>0</v>
+      </c>
+      <c r="N78" s="2">
+        <v>0</v>
+      </c>
+      <c r="O78" s="2">
+        <v>0</v>
+      </c>
+      <c r="P78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>0</v>
+      </c>
+      <c r="R78" s="2">
+        <v>0</v>
+      </c>
+      <c r="S78" s="2">
+        <v>0</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="W78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="X78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI78" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO78" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>152</v>
@@ -11561,7 +11565,7 @@
     </row>
     <row r="80" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>152</v>
@@ -11686,7 +11690,7 @@
     </row>
     <row r="81" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>152</v>
@@ -11811,7 +11815,7 @@
     </row>
     <row r="82" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>152</v>
@@ -11936,7 +11940,7 @@
     </row>
     <row r="83" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>152</v>
@@ -12061,7 +12065,7 @@
     </row>
     <row r="84" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>152</v>
@@ -12186,7 +12190,7 @@
     </row>
     <row r="85" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>152</v>
@@ -12311,7 +12315,7 @@
     </row>
     <row r="86" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>152</v>
@@ -12436,7 +12440,7 @@
     </row>
     <row r="87" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>152</v>
@@ -12561,7 +12565,7 @@
     </row>
     <row r="88" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>152</v>
@@ -12686,7 +12690,7 @@
     </row>
     <row r="89" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>152</v>
@@ -12811,7 +12815,7 @@
     </row>
     <row r="90" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>152</v>
@@ -12936,7 +12940,7 @@
     </row>
     <row r="91" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>152</v>
@@ -13061,7 +13065,7 @@
     </row>
     <row r="92" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>152</v>
@@ -13186,7 +13190,7 @@
     </row>
     <row r="93" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>152</v>
@@ -13311,7 +13315,7 @@
     </row>
     <row r="94" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>152</v>
@@ -13436,7 +13440,7 @@
     </row>
     <row r="95" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>152</v>
@@ -13561,7 +13565,7 @@
     </row>
     <row r="96" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>152</v>
@@ -13686,7 +13690,7 @@
     </row>
     <row r="97" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>152</v>
@@ -13794,10 +13798,10 @@
         <v>1</v>
       </c>
       <c r="AK97" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL97" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM97" s="7">
         <v>1</v>
@@ -13811,7 +13815,7 @@
     </row>
     <row r="98" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>152</v>
@@ -13936,7 +13940,7 @@
     </row>
     <row r="99" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>152</v>
@@ -14035,19 +14039,19 @@
         <v>142</v>
       </c>
       <c r="AH99" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI99" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ99" s="7">
         <v>1</v>
       </c>
       <c r="AK99" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL99" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM99" s="7">
         <v>1</v>
@@ -14061,7 +14065,7 @@
     </row>
     <row r="100" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>152</v>
@@ -14160,10 +14164,10 @@
         <v>142</v>
       </c>
       <c r="AH100" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI100" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ100" s="7">
         <v>1</v>
@@ -14186,7 +14190,7 @@
     </row>
     <row r="101" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>152</v>
@@ -14311,7 +14315,7 @@
     </row>
     <row r="102" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>152</v>
@@ -14436,7 +14440,7 @@
     </row>
     <row r="103" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>152</v>
@@ -14561,7 +14565,7 @@
     </row>
     <row r="104" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>152</v>
@@ -14686,7 +14690,7 @@
     </row>
     <row r="105" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>152</v>
@@ -14811,7 +14815,7 @@
     </row>
     <row r="106" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>152</v>
@@ -14936,7 +14940,7 @@
     </row>
     <row r="107" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>152</v>
@@ -15061,7 +15065,7 @@
     </row>
     <row r="108" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>152</v>
@@ -15169,7 +15173,7 @@
         <v>1</v>
       </c>
       <c r="AK108" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL108" s="7">
         <v>0</v>
@@ -15186,7 +15190,7 @@
     </row>
     <row r="109" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>152</v>
@@ -15294,7 +15298,7 @@
         <v>1</v>
       </c>
       <c r="AK109" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL109" s="7">
         <v>0</v>
@@ -15311,7 +15315,7 @@
     </row>
     <row r="110" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>152</v>
@@ -15436,7 +15440,7 @@
     </row>
     <row r="111" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>152</v>
@@ -15561,7 +15565,7 @@
     </row>
     <row r="112" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>152</v>
@@ -15686,7 +15690,7 @@
     </row>
     <row r="113" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>152</v>
@@ -15811,7 +15815,7 @@
     </row>
     <row r="114" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>152</v>
@@ -15822,20 +15826,20 @@
       <c r="D114" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E114" s="7">
-        <v>1</v>
-      </c>
-      <c r="F114" s="7">
-        <v>1</v>
-      </c>
-      <c r="G114" s="7">
-        <v>1</v>
-      </c>
-      <c r="H114" s="7">
-        <v>1</v>
-      </c>
-      <c r="I114" s="7">
-        <v>1</v>
+      <c r="E114" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="J114" s="7" t="s">
         <v>142</v>
@@ -15909,34 +15913,34 @@
       <c r="AG114" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="AH114" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI114" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ114" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK114" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL114" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM114" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN114" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AO114" s="7" t="s">
-        <v>142</v>
+      <c r="AH114" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI114" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ114" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK114" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL114" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM114" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN114" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO114" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>152</v>
@@ -15947,20 +15951,20 @@
       <c r="D115" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E115" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>142</v>
+      <c r="E115" s="7">
+        <v>1</v>
+      </c>
+      <c r="F115" s="7">
+        <v>1</v>
+      </c>
+      <c r="G115" s="7">
+        <v>1</v>
+      </c>
+      <c r="H115" s="7">
+        <v>1</v>
+      </c>
+      <c r="I115" s="7">
+        <v>1</v>
       </c>
       <c r="J115" s="7" t="s">
         <v>142</v>
@@ -16034,34 +16038,34 @@
       <c r="AG115" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="AH115" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI115" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ115" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK115" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL115" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM115" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN115" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO115" s="7">
-        <v>1</v>
+      <c r="AH115" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI115" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ115" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK115" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL115" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM115" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN115" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO115" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>152</v>
@@ -16181,12 +16185,12 @@
         <v>1</v>
       </c>
       <c r="AO116" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>152</v>
@@ -16311,7 +16315,7 @@
     </row>
     <row r="118" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>152</v>
@@ -16436,7 +16440,7 @@
     </row>
     <row r="119" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>152</v>
@@ -16561,7 +16565,7 @@
     </row>
     <row r="120" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>152</v>
@@ -16663,10 +16667,10 @@
         <v>0</v>
       </c>
       <c r="AI120" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ120" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK120" s="7">
         <v>0</v>
@@ -16675,18 +16679,18 @@
         <v>0</v>
       </c>
       <c r="AM120" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN120" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO120" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>152</v>
@@ -16788,10 +16792,10 @@
         <v>0</v>
       </c>
       <c r="AI121" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ121" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK121" s="7">
         <v>0</v>
@@ -16800,18 +16804,18 @@
         <v>0</v>
       </c>
       <c r="AM121" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN121" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO121" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>152</v>
@@ -16931,12 +16935,12 @@
         <v>1</v>
       </c>
       <c r="AO122" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>152</v>
@@ -17038,10 +17042,10 @@
         <v>0</v>
       </c>
       <c r="AI123" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ123" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK123" s="7">
         <v>0</v>
@@ -17050,7 +17054,7 @@
         <v>0</v>
       </c>
       <c r="AM123" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN123" s="7">
         <v>1</v>
@@ -17061,7 +17065,7 @@
     </row>
     <row r="124" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>152</v>
@@ -17162,11 +17166,11 @@
       <c r="AH124" s="7">
         <v>0</v>
       </c>
-      <c r="AI124" s="7" t="s">
-        <v>142</v>
+      <c r="AI124" s="7">
+        <v>0</v>
       </c>
       <c r="AJ124" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK124" s="7">
         <v>0</v>
@@ -17178,15 +17182,15 @@
         <v>0</v>
       </c>
       <c r="AN124" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO124" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>152</v>
@@ -17291,7 +17295,7 @@
         <v>142</v>
       </c>
       <c r="AJ125" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK125" s="7">
         <v>0</v>
@@ -17303,140 +17307,140 @@
         <v>0</v>
       </c>
       <c r="AN125" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO125" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>158</v>
+      <c r="A126" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C126" s="2">
-        <v>0</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="N126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="R126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="S126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="T126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="U126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="V126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="W126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="X126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH126" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI126" s="7">
-        <v>1</v>
+      <c r="C126" s="7">
+        <v>0</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="N126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="R126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="S126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="T126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="U126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="V126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="W126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="X126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG126" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH126" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI126" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="AJ126" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK126" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL126" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM126" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN126" s="7">
         <v>1</v>
       </c>
       <c r="AO126" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>152</v>
@@ -17561,7 +17565,7 @@
     </row>
     <row r="128" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>152</v>
@@ -17686,7 +17690,7 @@
     </row>
     <row r="129" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>152</v>
@@ -17811,7 +17815,7 @@
     </row>
     <row r="130" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>152</v>
@@ -17936,7 +17940,7 @@
     </row>
     <row r="131" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>152</v>
@@ -18060,8 +18064,8 @@
       </c>
     </row>
     <row r="132" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>164</v>
+      <c r="A132" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>152</v>
@@ -18186,7 +18190,7 @@
     </row>
     <row r="133" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>152</v>
@@ -18311,7 +18315,7 @@
     </row>
     <row r="134" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>152</v>
@@ -18431,16 +18435,141 @@
         <v>1</v>
       </c>
       <c r="AO134" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="R135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="T135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="U135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="V135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="W135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="X135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH135" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI135" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ135" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK135" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL135" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM135" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN135" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO135" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AO134" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AO135" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
       <formula1>"-,0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B134" xr:uid="{F7C9610C-D5FB-4D70-AEEE-43376E70EDF9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B135" xr:uid="{F7C9610C-D5FB-4D70-AEEE-43376E70EDF9}">
       <formula1>"enabled,checked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_01\C++\Product\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ED7AD0-EFAE-4EE2-BB81-02A4C8D4F0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B648C443-A32B-477F-9B96-D8A0400AE49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4212" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="171">
   <si>
     <t>init</t>
   </si>
@@ -1634,10 +1634,10 @@
   <dimension ref="A1:AO135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A49" sqref="A49:A135"/>
+      <selection pane="bottomRight" activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1651,7 +1651,7 @@
     <col min="7" max="7" width="25.44140625" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" customWidth="1"/>
     <col min="11" max="11" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
@@ -5958,43 +5958,43 @@
         <v>1</v>
       </c>
       <c r="G35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="2">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2">
-        <v>0</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0</v>
-      </c>
-      <c r="P35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>0</v>
-      </c>
-      <c r="R35" s="2">
-        <v>0</v>
-      </c>
-      <c r="S35" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="T35" s="2" t="s">
         <v>142</v>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_01\C++\Product\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B648C443-A32B-477F-9B96-D8A0400AE49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9A15A7-335D-4597-8D77-5BDD5455EA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4225" uniqueCount="171">
   <si>
     <t>init</t>
   </si>
@@ -1634,10 +1634,10 @@
   <dimension ref="A1:AO135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S35" sqref="S35"/>
+      <selection pane="bottomRight" activeCell="M70" sqref="M70:S70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10350,26 +10350,26 @@
       <c r="L70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M70" s="2">
-        <v>0</v>
-      </c>
-      <c r="N70" s="2">
-        <v>0</v>
-      </c>
-      <c r="O70" s="2">
-        <v>0</v>
-      </c>
-      <c r="P70" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="2">
-        <v>0</v>
-      </c>
-      <c r="R70" s="2">
-        <v>0</v>
-      </c>
-      <c r="S70" s="2">
-        <v>0</v>
+      <c r="M70" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="T70" s="2" t="s">
         <v>142</v>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_01\C++\Product\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9A15A7-335D-4597-8D77-5BDD5455EA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE1946D-3FF1-4A76-AC29-352C27F69CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4225" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="171">
   <si>
     <t>init</t>
   </si>
@@ -1634,10 +1634,10 @@
   <dimension ref="A1:AO135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M70" sqref="M70:S70"/>
+      <selection pane="bottomRight" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5726,25 +5726,25 @@
         <v>142</v>
       </c>
       <c r="M33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="2" t="s">
         <v>142</v>
@@ -5830,7 +5830,7 @@
         <v>142</v>
       </c>
       <c r="F34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>142</v>
@@ -10579,20 +10579,20 @@
       <c r="E72" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F72" s="2">
-        <v>0</v>
+      <c r="F72" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H72" s="2">
-        <v>1</v>
+      <c r="H72" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J72" s="2">
-        <v>0</v>
+      <c r="J72" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>142</v>
@@ -10600,26 +10600,26 @@
       <c r="L72" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M72" s="2">
-        <v>0</v>
-      </c>
-      <c r="N72" s="2">
-        <v>0</v>
-      </c>
-      <c r="O72" s="2">
-        <v>0</v>
-      </c>
-      <c r="P72" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="2">
-        <v>0</v>
-      </c>
-      <c r="R72" s="2">
-        <v>0</v>
-      </c>
-      <c r="S72" s="2">
-        <v>0</v>
+      <c r="M72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="T72" s="2" t="s">
         <v>142</v>
@@ -10704,20 +10704,20 @@
       <c r="E73" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F73" s="2">
-        <v>0</v>
+      <c r="F73" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H73" s="2">
-        <v>1</v>
+      <c r="H73" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J73" s="2">
-        <v>0</v>
+      <c r="J73" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>142</v>
@@ -10725,26 +10725,26 @@
       <c r="L73" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M73" s="2">
-        <v>0</v>
-      </c>
-      <c r="N73" s="2">
-        <v>0</v>
-      </c>
-      <c r="O73" s="2">
-        <v>0</v>
-      </c>
-      <c r="P73" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="2">
-        <v>0</v>
-      </c>
-      <c r="R73" s="2">
-        <v>0</v>
-      </c>
-      <c r="S73" s="2">
-        <v>0</v>
+      <c r="M73" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S73" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="T73" s="2" t="s">
         <v>142</v>
@@ -10829,8 +10829,8 @@
       <c r="E74" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F74" s="2">
-        <v>0</v>
+      <c r="F74" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>142</v>
@@ -10841,8 +10841,8 @@
       <c r="I74" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J74" s="2">
-        <v>0</v>
+      <c r="J74" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>142</v>
@@ -10954,8 +10954,8 @@
       <c r="E75" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F75" s="2">
-        <v>0</v>
+      <c r="F75" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>142</v>
@@ -10966,8 +10966,8 @@
       <c r="I75" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J75" s="2">
-        <v>0</v>
+      <c r="J75" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>142</v>
@@ -11335,14 +11335,14 @@
       <c r="G78" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H78" s="2">
-        <v>1</v>
+      <c r="H78" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J78" s="2">
-        <v>0</v>
+      <c r="J78" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>142</v>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_01\C++\Product\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE1946D-3FF1-4A76-AC29-352C27F69CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A62609-18E7-4C38-9C02-8A1682CACF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="27648" windowHeight="14664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constraints" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="172">
   <si>
     <t>init</t>
   </si>
@@ -549,6 +549,10 @@
   </si>
   <si>
     <t>m_ui-&gt;actionInvertSelection</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_ui-&gt;actionPrimitiveWeld</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1285,8 +1289,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO135">
-  <autoFilter ref="A1:AO135" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO136">
+  <autoFilter ref="A1:AO136" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="states" totalsRowLabel="Total" dataDxfId="40"/>
     <tableColumn id="22" xr3:uid="{64DA4EF6-7838-4458-9526-2EDCDDECD7E6}" name="property" dataDxfId="39"/>
@@ -1631,13 +1635,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO135"/>
+  <dimension ref="A1:AO136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AH56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomRight" activeCell="E74" sqref="E74:AO74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5938,7 +5942,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>105</v>
       </c>
@@ -7063,7 +7067,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>105</v>
       </c>
@@ -10693,7 +10697,7 @@
         <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -10815,9 +10819,9 @@
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B74" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>152</v>
       </c>
       <c r="C74" s="2">
@@ -10940,7 +10944,7 @@
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>152</v>
@@ -11063,9 +11067,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>152</v>
@@ -11079,20 +11083,20 @@
       <c r="E76" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F76" s="2">
-        <v>0</v>
+      <c r="F76" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H76" s="2">
-        <v>1</v>
+      <c r="H76" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J76" s="2">
-        <v>0</v>
+      <c r="J76" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>142</v>
@@ -11100,26 +11104,26 @@
       <c r="L76" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M76" s="2">
-        <v>0</v>
-      </c>
-      <c r="N76" s="2">
-        <v>0</v>
-      </c>
-      <c r="O76" s="2">
-        <v>0</v>
-      </c>
-      <c r="P76" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="2">
-        <v>0</v>
-      </c>
-      <c r="R76" s="2">
-        <v>0</v>
-      </c>
-      <c r="S76" s="2">
-        <v>0</v>
+      <c r="M76" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="T76" s="2" t="s">
         <v>142</v>
@@ -11190,7 +11194,7 @@
     </row>
     <row r="77" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>152</v>
@@ -11315,7 +11319,7 @@
     </row>
     <row r="78" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>152</v>
@@ -11335,14 +11339,14 @@
       <c r="G78" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>157</v>
+      <c r="H78" s="2">
+        <v>1</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>157</v>
+      <c r="J78" s="2">
+        <v>0</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>142</v>
@@ -11439,133 +11443,133 @@
       </c>
     </row>
     <row r="79" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="7" t="s">
+      <c r="A79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C79" s="7">
-        <v>0</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="N79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="O79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="R79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="S79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="T79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="U79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="V79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="W79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="X79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH79" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI79" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ79" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK79" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL79" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM79" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN79" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO79" s="7">
-        <v>1</v>
+      <c r="C79" s="2">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M79" s="2">
+        <v>0</v>
+      </c>
+      <c r="N79" s="2">
+        <v>0</v>
+      </c>
+      <c r="O79" s="2">
+        <v>0</v>
+      </c>
+      <c r="P79" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>0</v>
+      </c>
+      <c r="R79" s="2">
+        <v>0</v>
+      </c>
+      <c r="S79" s="2">
+        <v>0</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="U79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="V79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="W79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="X79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI79" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO79" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>152</v>
@@ -11690,7 +11694,7 @@
     </row>
     <row r="81" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>152</v>
@@ -11815,7 +11819,7 @@
     </row>
     <row r="82" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>152</v>
@@ -11940,7 +11944,7 @@
     </row>
     <row r="83" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>152</v>
@@ -12065,7 +12069,7 @@
     </row>
     <row r="84" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>152</v>
@@ -12190,7 +12194,7 @@
     </row>
     <row r="85" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>152</v>
@@ -12315,7 +12319,7 @@
     </row>
     <row r="86" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>152</v>
@@ -12440,7 +12444,7 @@
     </row>
     <row r="87" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>152</v>
@@ -12565,7 +12569,7 @@
     </row>
     <row r="88" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>152</v>
@@ -12690,7 +12694,7 @@
     </row>
     <row r="89" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>152</v>
@@ -12815,7 +12819,7 @@
     </row>
     <row r="90" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>152</v>
@@ -12940,7 +12944,7 @@
     </row>
     <row r="91" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>152</v>
@@ -13065,7 +13069,7 @@
     </row>
     <row r="92" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>152</v>
@@ -13190,7 +13194,7 @@
     </row>
     <row r="93" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>152</v>
@@ -13315,7 +13319,7 @@
     </row>
     <row r="94" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>152</v>
@@ -13440,7 +13444,7 @@
     </row>
     <row r="95" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>152</v>
@@ -13565,7 +13569,7 @@
     </row>
     <row r="96" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>152</v>
@@ -13690,7 +13694,7 @@
     </row>
     <row r="97" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>152</v>
@@ -13815,7 +13819,7 @@
     </row>
     <row r="98" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>152</v>
@@ -13923,10 +13927,10 @@
         <v>1</v>
       </c>
       <c r="AK98" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL98" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM98" s="7">
         <v>1</v>
@@ -13940,7 +13944,7 @@
     </row>
     <row r="99" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>152</v>
@@ -14065,7 +14069,7 @@
     </row>
     <row r="100" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>152</v>
@@ -14164,19 +14168,19 @@
         <v>142</v>
       </c>
       <c r="AH100" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI100" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ100" s="7">
         <v>1</v>
       </c>
       <c r="AK100" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL100" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM100" s="7">
         <v>1</v>
@@ -14190,7 +14194,7 @@
     </row>
     <row r="101" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>152</v>
@@ -14289,10 +14293,10 @@
         <v>142</v>
       </c>
       <c r="AH101" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI101" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ101" s="7">
         <v>1</v>
@@ -14315,7 +14319,7 @@
     </row>
     <row r="102" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>152</v>
@@ -14440,7 +14444,7 @@
     </row>
     <row r="103" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>152</v>
@@ -14565,7 +14569,7 @@
     </row>
     <row r="104" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>152</v>
@@ -14690,7 +14694,7 @@
     </row>
     <row r="105" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>152</v>
@@ -14815,7 +14819,7 @@
     </row>
     <row r="106" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>152</v>
@@ -14940,7 +14944,7 @@
     </row>
     <row r="107" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>152</v>
@@ -15065,7 +15069,7 @@
     </row>
     <row r="108" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>152</v>
@@ -15190,7 +15194,7 @@
     </row>
     <row r="109" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>152</v>
@@ -15298,7 +15302,7 @@
         <v>1</v>
       </c>
       <c r="AK109" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL109" s="7">
         <v>0</v>
@@ -15315,7 +15319,7 @@
     </row>
     <row r="110" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>152</v>
@@ -15423,7 +15427,7 @@
         <v>1</v>
       </c>
       <c r="AK110" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL110" s="7">
         <v>0</v>
@@ -15440,7 +15444,7 @@
     </row>
     <row r="111" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>152</v>
@@ -15565,7 +15569,7 @@
     </row>
     <row r="112" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>152</v>
@@ -15690,7 +15694,7 @@
     </row>
     <row r="113" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>152</v>
@@ -15815,7 +15819,7 @@
     </row>
     <row r="114" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>152</v>
@@ -15940,7 +15944,7 @@
     </row>
     <row r="115" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>152</v>
@@ -15951,20 +15955,20 @@
       <c r="D115" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E115" s="7">
-        <v>1</v>
-      </c>
-      <c r="F115" s="7">
-        <v>1</v>
-      </c>
-      <c r="G115" s="7">
-        <v>1</v>
-      </c>
-      <c r="H115" s="7">
-        <v>1</v>
-      </c>
-      <c r="I115" s="7">
-        <v>1</v>
+      <c r="E115" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="J115" s="7" t="s">
         <v>142</v>
@@ -16038,34 +16042,34 @@
       <c r="AG115" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="AH115" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI115" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ115" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK115" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL115" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM115" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN115" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AO115" s="7" t="s">
-        <v>142</v>
+      <c r="AH115" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI115" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ115" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK115" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL115" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM115" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN115" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO115" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>152</v>
@@ -16076,20 +16080,20 @@
       <c r="D116" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E116" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I116" s="7" t="s">
-        <v>142</v>
+      <c r="E116" s="7">
+        <v>1</v>
+      </c>
+      <c r="F116" s="7">
+        <v>1</v>
+      </c>
+      <c r="G116" s="7">
+        <v>1</v>
+      </c>
+      <c r="H116" s="7">
+        <v>1</v>
+      </c>
+      <c r="I116" s="7">
+        <v>1</v>
       </c>
       <c r="J116" s="7" t="s">
         <v>142</v>
@@ -16163,34 +16167,34 @@
       <c r="AG116" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="AH116" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI116" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ116" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK116" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL116" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM116" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN116" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO116" s="7">
-        <v>1</v>
+      <c r="AH116" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI116" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ116" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK116" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL116" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM116" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN116" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO116" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>152</v>
@@ -16310,12 +16314,12 @@
         <v>1</v>
       </c>
       <c r="AO117" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>152</v>
@@ -16440,7 +16444,7 @@
     </row>
     <row r="119" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>152</v>
@@ -16565,7 +16569,7 @@
     </row>
     <row r="120" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>152</v>
@@ -16690,7 +16694,7 @@
     </row>
     <row r="121" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>152</v>
@@ -16792,10 +16796,10 @@
         <v>0</v>
       </c>
       <c r="AI121" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ121" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK121" s="7">
         <v>0</v>
@@ -16804,18 +16808,18 @@
         <v>0</v>
       </c>
       <c r="AM121" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN121" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO121" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>152</v>
@@ -16917,10 +16921,10 @@
         <v>0</v>
       </c>
       <c r="AI122" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ122" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK122" s="7">
         <v>0</v>
@@ -16929,18 +16933,18 @@
         <v>0</v>
       </c>
       <c r="AM122" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN122" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO122" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>152</v>
@@ -17060,12 +17064,12 @@
         <v>1</v>
       </c>
       <c r="AO123" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>152</v>
@@ -17167,10 +17171,10 @@
         <v>0</v>
       </c>
       <c r="AI124" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ124" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK124" s="7">
         <v>0</v>
@@ -17179,7 +17183,7 @@
         <v>0</v>
       </c>
       <c r="AM124" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN124" s="7">
         <v>1</v>
@@ -17190,7 +17194,7 @@
     </row>
     <row r="125" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>152</v>
@@ -17291,11 +17295,11 @@
       <c r="AH125" s="7">
         <v>0</v>
       </c>
-      <c r="AI125" s="7" t="s">
-        <v>142</v>
+      <c r="AI125" s="7">
+        <v>0</v>
       </c>
       <c r="AJ125" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK125" s="7">
         <v>0</v>
@@ -17307,15 +17311,15 @@
         <v>0</v>
       </c>
       <c r="AN125" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO125" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>152</v>
@@ -17420,7 +17424,7 @@
         <v>142</v>
       </c>
       <c r="AJ126" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK126" s="7">
         <v>0</v>
@@ -17432,140 +17436,140 @@
         <v>0</v>
       </c>
       <c r="AN126" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO126" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>158</v>
+      <c r="A127" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C127" s="2">
-        <v>0</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="R127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="S127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="T127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="U127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="V127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="W127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="X127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH127" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI127" s="7">
-        <v>1</v>
+      <c r="C127" s="7">
+        <v>0</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="N127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="R127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="S127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="T127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="U127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="V127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="W127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="X127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG127" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH127" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI127" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="AJ127" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK127" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL127" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM127" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN127" s="7">
         <v>1</v>
       </c>
       <c r="AO127" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>152</v>
@@ -17690,7 +17694,7 @@
     </row>
     <row r="129" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>152</v>
@@ -17815,7 +17819,7 @@
     </row>
     <row r="130" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>152</v>
@@ -17940,7 +17944,7 @@
     </row>
     <row r="131" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>152</v>
@@ -18065,7 +18069,7 @@
     </row>
     <row r="132" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>152</v>
@@ -18189,8 +18193,8 @@
       </c>
     </row>
     <row r="133" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>164</v>
+      <c r="A133" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>152</v>
@@ -18315,7 +18319,7 @@
     </row>
     <row r="134" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>152</v>
@@ -18440,7 +18444,7 @@
     </row>
     <row r="135" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>152</v>
@@ -18560,16 +18564,141 @@
         <v>1</v>
       </c>
       <c r="AO135" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="R136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="T136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="U136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="V136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="W136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="X136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH136" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI136" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ136" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK136" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL136" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM136" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN136" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO136" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AO135" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AO136" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
       <formula1>"-,0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B135" xr:uid="{F7C9610C-D5FB-4D70-AEEE-43376E70EDF9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B136" xr:uid="{F7C9610C-D5FB-4D70-AEEE-43376E70EDF9}">
       <formula1>"enabled,checked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_01\C++\Product\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A62609-18E7-4C38-9C02-8A1682CACF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D71293-8621-42B8-99E7-92E33F7C9CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1500" windowWidth="27648" windowHeight="14664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,7 +552,7 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>m_ui-&gt;actionPrimitiveWeld</t>
+    <t>m_ui-&gt;actionUnitTwoShapes</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1641,7 +1641,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="AH56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E74" sqref="E74:AO74"/>
+      <selection pane="bottomRight" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_01\C++\Product\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C12EA98-D6A7-46E7-9626-EB33F7168F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67E1B71-F48C-480D-BF35-E5D1C01834BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1500" windowWidth="27648" windowHeight="14664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4329" uniqueCount="173">
   <si>
     <t>init</t>
   </si>
@@ -554,6 +554,10 @@
   </si>
   <si>
     <t>m_ui-&gt;actionUniteTwoShapes</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_ui-&gt;actionWeldAllShapes</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1290,8 +1294,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO136">
-  <autoFilter ref="A1:AO136" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO137">
+  <autoFilter ref="A1:AO137" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="states" totalsRowLabel="Total" dataDxfId="40"/>
     <tableColumn id="22" xr3:uid="{64DA4EF6-7838-4458-9526-2EDCDDECD7E6}" name="property" dataDxfId="39"/>
@@ -1636,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO136"/>
+  <dimension ref="A1:AO137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A74" sqref="A74"/>
@@ -10820,7 +10824,7 @@
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>151</v>
@@ -10945,9 +10949,9 @@
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B75" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>151</v>
       </c>
       <c r="C75" s="2">
@@ -11068,9 +11072,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>151</v>
@@ -11195,7 +11199,7 @@
     </row>
     <row r="77" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>151</v>
@@ -11209,20 +11213,20 @@
       <c r="E77" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F77" s="2">
-        <v>0</v>
+      <c r="F77" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H77" s="2">
-        <v>1</v>
+      <c r="H77" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="J77" s="2">
-        <v>0</v>
+      <c r="J77" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>141</v>
@@ -11230,26 +11234,26 @@
       <c r="L77" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M77" s="2">
-        <v>0</v>
-      </c>
-      <c r="N77" s="2">
-        <v>0</v>
-      </c>
-      <c r="O77" s="2">
-        <v>0</v>
-      </c>
-      <c r="P77" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="2">
-        <v>0</v>
-      </c>
-      <c r="R77" s="2">
-        <v>0</v>
-      </c>
-      <c r="S77" s="2">
-        <v>0</v>
+      <c r="M77" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="T77" s="2" t="s">
         <v>141</v>
@@ -11320,7 +11324,7 @@
     </row>
     <row r="78" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>151</v>
@@ -11445,7 +11449,7 @@
     </row>
     <row r="79" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>151</v>
@@ -11465,14 +11469,14 @@
       <c r="G79" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H79" s="2" t="s">
-        <v>156</v>
+      <c r="H79" s="2">
+        <v>1</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>156</v>
+      <c r="J79" s="2">
+        <v>0</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>141</v>
@@ -11569,133 +11573,133 @@
       </c>
     </row>
     <row r="80" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" s="7" t="s">
+      <c r="A80" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C80" s="7">
-        <v>0</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="N80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="O80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="R80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="S80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="T80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="U80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="V80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="W80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="X80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH80" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI80" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ80" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK80" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL80" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM80" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN80" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO80" s="7">
-        <v>1</v>
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M80" s="2">
+        <v>0</v>
+      </c>
+      <c r="N80" s="2">
+        <v>0</v>
+      </c>
+      <c r="O80" s="2">
+        <v>0</v>
+      </c>
+      <c r="P80" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>0</v>
+      </c>
+      <c r="R80" s="2">
+        <v>0</v>
+      </c>
+      <c r="S80" s="2">
+        <v>0</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI80" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO80" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>151</v>
@@ -11820,7 +11824,7 @@
     </row>
     <row r="82" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>151</v>
@@ -11945,7 +11949,7 @@
     </row>
     <row r="83" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>151</v>
@@ -12070,7 +12074,7 @@
     </row>
     <row r="84" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>151</v>
@@ -12195,7 +12199,7 @@
     </row>
     <row r="85" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>151</v>
@@ -12320,7 +12324,7 @@
     </row>
     <row r="86" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>151</v>
@@ -12445,7 +12449,7 @@
     </row>
     <row r="87" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>151</v>
@@ -12570,7 +12574,7 @@
     </row>
     <row r="88" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>151</v>
@@ -12695,7 +12699,7 @@
     </row>
     <row r="89" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>151</v>
@@ -12820,7 +12824,7 @@
     </row>
     <row r="90" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>151</v>
@@ -12945,7 +12949,7 @@
     </row>
     <row r="91" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>151</v>
@@ -13070,7 +13074,7 @@
     </row>
     <row r="92" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>151</v>
@@ -13195,7 +13199,7 @@
     </row>
     <row r="93" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>151</v>
@@ -13320,7 +13324,7 @@
     </row>
     <row r="94" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>151</v>
@@ -13445,7 +13449,7 @@
     </row>
     <row r="95" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>151</v>
@@ -13570,7 +13574,7 @@
     </row>
     <row r="96" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>151</v>
@@ -13695,7 +13699,7 @@
     </row>
     <row r="97" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>151</v>
@@ -13820,7 +13824,7 @@
     </row>
     <row r="98" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>151</v>
@@ -13945,7 +13949,7 @@
     </row>
     <row r="99" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>151</v>
@@ -14053,10 +14057,10 @@
         <v>1</v>
       </c>
       <c r="AK99" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL99" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM99" s="7">
         <v>1</v>
@@ -14070,7 +14074,7 @@
     </row>
     <row r="100" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>151</v>
@@ -14195,7 +14199,7 @@
     </row>
     <row r="101" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>151</v>
@@ -14294,19 +14298,19 @@
         <v>141</v>
       </c>
       <c r="AH101" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI101" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ101" s="7">
         <v>1</v>
       </c>
       <c r="AK101" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL101" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM101" s="7">
         <v>1</v>
@@ -14320,7 +14324,7 @@
     </row>
     <row r="102" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>151</v>
@@ -14419,10 +14423,10 @@
         <v>141</v>
       </c>
       <c r="AH102" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI102" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ102" s="7">
         <v>1</v>
@@ -14445,7 +14449,7 @@
     </row>
     <row r="103" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>151</v>
@@ -14570,7 +14574,7 @@
     </row>
     <row r="104" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>151</v>
@@ -14695,7 +14699,7 @@
     </row>
     <row r="105" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>151</v>
@@ -14820,7 +14824,7 @@
     </row>
     <row r="106" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>151</v>
@@ -14945,7 +14949,7 @@
     </row>
     <row r="107" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>151</v>
@@ -15070,7 +15074,7 @@
     </row>
     <row r="108" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>151</v>
@@ -15195,7 +15199,7 @@
     </row>
     <row r="109" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>151</v>
@@ -15320,7 +15324,7 @@
     </row>
     <row r="110" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>151</v>
@@ -15428,7 +15432,7 @@
         <v>1</v>
       </c>
       <c r="AK110" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL110" s="7">
         <v>0</v>
@@ -15445,7 +15449,7 @@
     </row>
     <row r="111" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>151</v>
@@ -15553,7 +15557,7 @@
         <v>1</v>
       </c>
       <c r="AK111" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL111" s="7">
         <v>0</v>
@@ -15570,7 +15574,7 @@
     </row>
     <row r="112" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>151</v>
@@ -15695,7 +15699,7 @@
     </row>
     <row r="113" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>151</v>
@@ -15820,7 +15824,7 @@
     </row>
     <row r="114" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>151</v>
@@ -15945,7 +15949,7 @@
     </row>
     <row r="115" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>151</v>
@@ -16070,7 +16074,7 @@
     </row>
     <row r="116" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>151</v>
@@ -16081,20 +16085,20 @@
       <c r="D116" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E116" s="7">
-        <v>1</v>
-      </c>
-      <c r="F116" s="7">
-        <v>1</v>
-      </c>
-      <c r="G116" s="7">
-        <v>1</v>
-      </c>
-      <c r="H116" s="7">
-        <v>1</v>
-      </c>
-      <c r="I116" s="7">
-        <v>1</v>
+      <c r="E116" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="J116" s="7" t="s">
         <v>141</v>
@@ -16168,34 +16172,34 @@
       <c r="AG116" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="AH116" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI116" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ116" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK116" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL116" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM116" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN116" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO116" s="7" t="s">
-        <v>141</v>
+      <c r="AH116" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI116" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ116" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK116" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL116" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM116" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN116" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO116" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>151</v>
@@ -16206,20 +16210,20 @@
       <c r="D117" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E117" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="I117" s="7" t="s">
-        <v>141</v>
+      <c r="E117" s="7">
+        <v>1</v>
+      </c>
+      <c r="F117" s="7">
+        <v>1</v>
+      </c>
+      <c r="G117" s="7">
+        <v>1</v>
+      </c>
+      <c r="H117" s="7">
+        <v>1</v>
+      </c>
+      <c r="I117" s="7">
+        <v>1</v>
       </c>
       <c r="J117" s="7" t="s">
         <v>141</v>
@@ -16293,34 +16297,34 @@
       <c r="AG117" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="AH117" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI117" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ117" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK117" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL117" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM117" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN117" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO117" s="7">
-        <v>1</v>
+      <c r="AH117" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI117" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ117" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK117" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL117" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM117" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN117" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO117" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>151</v>
@@ -16440,12 +16444,12 @@
         <v>1</v>
       </c>
       <c r="AO118" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>151</v>
@@ -16570,7 +16574,7 @@
     </row>
     <row r="120" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>151</v>
@@ -16695,7 +16699,7 @@
     </row>
     <row r="121" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>151</v>
@@ -16820,7 +16824,7 @@
     </row>
     <row r="122" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>151</v>
@@ -16922,10 +16926,10 @@
         <v>0</v>
       </c>
       <c r="AI122" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ122" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK122" s="7">
         <v>0</v>
@@ -16934,18 +16938,18 @@
         <v>0</v>
       </c>
       <c r="AM122" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN122" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO122" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>151</v>
@@ -17047,10 +17051,10 @@
         <v>0</v>
       </c>
       <c r="AI123" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ123" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK123" s="7">
         <v>0</v>
@@ -17059,18 +17063,18 @@
         <v>0</v>
       </c>
       <c r="AM123" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN123" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO123" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>151</v>
@@ -17190,12 +17194,12 @@
         <v>1</v>
       </c>
       <c r="AO124" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>151</v>
@@ -17297,10 +17301,10 @@
         <v>0</v>
       </c>
       <c r="AI125" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ125" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK125" s="7">
         <v>0</v>
@@ -17309,7 +17313,7 @@
         <v>0</v>
       </c>
       <c r="AM125" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN125" s="7">
         <v>1</v>
@@ -17320,7 +17324,7 @@
     </row>
     <row r="126" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>151</v>
@@ -17421,11 +17425,11 @@
       <c r="AH126" s="7">
         <v>0</v>
       </c>
-      <c r="AI126" s="7" t="s">
-        <v>141</v>
+      <c r="AI126" s="7">
+        <v>0</v>
       </c>
       <c r="AJ126" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK126" s="7">
         <v>0</v>
@@ -17437,15 +17441,15 @@
         <v>0</v>
       </c>
       <c r="AN126" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO126" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>151</v>
@@ -17550,7 +17554,7 @@
         <v>141</v>
       </c>
       <c r="AJ127" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK127" s="7">
         <v>0</v>
@@ -17562,140 +17566,140 @@
         <v>0</v>
       </c>
       <c r="AN127" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO127" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>157</v>
+      <c r="A128" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C128" s="2">
-        <v>0</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="S128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="T128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="U128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="W128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="X128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH128" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI128" s="7">
-        <v>1</v>
+      <c r="C128" s="7">
+        <v>0</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="O128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="R128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="S128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="T128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="V128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="W128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH128" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI128" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="AJ128" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK128" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL128" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM128" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN128" s="7">
         <v>1</v>
       </c>
       <c r="AO128" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>151</v>
@@ -17820,7 +17824,7 @@
     </row>
     <row r="130" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>151</v>
@@ -17945,7 +17949,7 @@
     </row>
     <row r="131" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>151</v>
@@ -18070,7 +18074,7 @@
     </row>
     <row r="132" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>151</v>
@@ -18195,7 +18199,7 @@
     </row>
     <row r="133" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>151</v>
@@ -18319,8 +18323,8 @@
       </c>
     </row>
     <row r="134" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>163</v>
+      <c r="A134" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>151</v>
@@ -18445,7 +18449,7 @@
     </row>
     <row r="135" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>151</v>
@@ -18570,7 +18574,7 @@
     </row>
     <row r="136" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>151</v>
@@ -18690,16 +18694,141 @@
         <v>1</v>
       </c>
       <c r="AO136" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="V137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="W137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="X137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI137" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ137" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK137" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL137" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM137" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN137" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO137" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AO136" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AO137" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
       <formula1>"-,0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B136" xr:uid="{F7C9610C-D5FB-4D70-AEEE-43376E70EDF9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B137" xr:uid="{F7C9610C-D5FB-4D70-AEEE-43376E70EDF9}">
       <formula1>"enabled,checked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_01\C++\Product\LaserController\LaserController\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C12EA98-D6A7-46E7-9626-EB33F7168F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D027898B-2C6D-4E28-AF77-C7DB8317889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="27648" windowHeight="14664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="-17430" windowWidth="24000" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constraints" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4280" uniqueCount="172">
   <si>
     <t>init</t>
   </si>
@@ -561,25 +561,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -587,7 +587,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -595,7 +595,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -603,35 +603,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -639,7 +639,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -647,14 +647,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -662,14 +662,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -677,7 +677,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -685,27 +685,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1076,48 +1076,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="41">
     <dxf>
@@ -1340,7 +1340,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1639,61 +1639,61 @@
   <dimension ref="A1:AO136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A74" sqref="A74"/>
+      <selection pane="bottomRight" activeCell="J56" sqref="J56:S57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.88671875" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="30" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="32" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="31" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="32" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="31" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="31.109375" customWidth="1"/>
-    <col min="45" max="45" width="30.33203125" customWidth="1"/>
+    <col min="44" max="44" width="31.140625" customWidth="1"/>
+    <col min="45" max="45" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41">
       <c r="A6" s="1" t="s">
         <v>92</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41">
       <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41">
       <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41">
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41">
       <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41">
       <c r="A34" s="1" t="s">
         <v>93</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" s="5" customFormat="1">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" s="5" customFormat="1">
       <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" s="5" customFormat="1">
       <c r="A37" s="3" t="s">
         <v>40</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" s="5" customFormat="1">
       <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" s="5" customFormat="1">
       <c r="A39" s="3" t="s">
         <v>42</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" s="5" customFormat="1">
       <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" s="5" customFormat="1">
       <c r="A41" s="3" t="s">
         <v>44</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" s="5" customFormat="1">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" s="5" customFormat="1">
       <c r="A43" s="3" t="s">
         <v>93</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41">
       <c r="A44" s="3" t="s">
         <v>104</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41">
       <c r="A48" s="1" t="s">
         <v>168</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41">
       <c r="A49" s="1" t="s">
         <v>169</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41">
       <c r="A50" s="1" t="s">
         <v>166</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41">
       <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41">
       <c r="A53" s="1" t="s">
         <v>116</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41">
       <c r="A55" s="1" t="s">
         <v>75</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41">
       <c r="A56" s="1" t="s">
         <v>76</v>
       </c>
@@ -8587,44 +8587,44 @@
       <c r="F56" s="2">
         <v>1</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>141</v>
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
       </c>
-      <c r="K56" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>141</v>
+      <c r="K56" s="2">
+        <v>1</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1</v>
       </c>
       <c r="M56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" s="2" t="s">
         <v>141</v>
@@ -8693,7 +8693,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41">
       <c r="A57" s="1" t="s">
         <v>77</v>
       </c>
@@ -8712,44 +8712,44 @@
       <c r="F57" s="2">
         <v>1</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>141</v>
+      <c r="G57" s="2">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
       </c>
-      <c r="K57" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>141</v>
+      <c r="K57" s="2">
+        <v>1</v>
+      </c>
+      <c r="L57" s="2">
+        <v>1</v>
       </c>
       <c r="M57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" s="2" t="s">
         <v>141</v>
@@ -8818,7 +8818,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41">
       <c r="A58" s="1" t="s">
         <v>95</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41">
       <c r="A59" s="1" t="s">
         <v>96</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41">
       <c r="A60" s="1" t="s">
         <v>155</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41">
       <c r="A61" s="1" t="s">
         <v>170</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41">
       <c r="A62" s="1" t="s">
         <v>100</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41">
       <c r="A63" s="1" t="s">
         <v>101</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41">
       <c r="A64" s="1" t="s">
         <v>102</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:41">
       <c r="A65" s="1" t="s">
         <v>103</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:41">
       <c r="A66" s="1" t="s">
         <v>105</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:41">
       <c r="A67" s="1" t="s">
         <v>106</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:41">
       <c r="A68" s="1" t="s">
         <v>107</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:41">
       <c r="A69" s="1" t="s">
         <v>108</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:41">
       <c r="A70" s="1" t="s">
         <v>109</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:41">
       <c r="A71" s="1" t="s">
         <v>110</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:41">
       <c r="A72" s="1" t="s">
         <v>111</v>
       </c>
@@ -10693,7 +10693,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:41">
       <c r="A73" s="1" t="s">
         <v>112</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:41">
       <c r="A74" s="1" t="s">
         <v>171</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:41">
       <c r="A75" s="1" t="s">
         <v>113</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:41" s="8" customFormat="1">
       <c r="A76" s="1" t="s">
         <v>114</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:41" s="8" customFormat="1">
       <c r="A77" s="1" t="s">
         <v>115</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:41" s="8" customFormat="1">
       <c r="A78" s="1" t="s">
         <v>136</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:41" s="8" customFormat="1">
       <c r="A79" s="1" t="s">
         <v>119</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="80" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:41" s="8" customFormat="1">
       <c r="A80" s="6" t="s">
         <v>78</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:41" s="8" customFormat="1">
       <c r="A81" s="6" t="s">
         <v>64</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:41" s="8" customFormat="1">
       <c r="A82" s="6" t="s">
         <v>65</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:41" s="8" customFormat="1">
       <c r="A83" s="6" t="s">
         <v>56</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:41" s="8" customFormat="1">
       <c r="A84" s="6" t="s">
         <v>57</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:41" s="8" customFormat="1">
       <c r="A85" s="6" t="s">
         <v>79</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:41" s="8" customFormat="1">
       <c r="A86" s="6" t="s">
         <v>80</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:41" s="8" customFormat="1">
       <c r="A87" s="6" t="s">
         <v>81</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:41" s="8" customFormat="1">
       <c r="A88" s="6" t="s">
         <v>82</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:41" s="8" customFormat="1">
       <c r="A89" s="6" t="s">
         <v>83</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:41" s="8" customFormat="1">
       <c r="A90" s="6" t="s">
         <v>84</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:41" s="8" customFormat="1">
       <c r="A91" s="6" t="s">
         <v>85</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:41" s="8" customFormat="1">
       <c r="A92" s="6" t="s">
         <v>86</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:41" s="8" customFormat="1">
       <c r="A93" s="6" t="s">
         <v>87</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:41" s="8" customFormat="1">
       <c r="A94" s="6" t="s">
         <v>88</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:41" s="8" customFormat="1">
       <c r="A95" s="6" t="s">
         <v>89</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:41" s="8" customFormat="1">
       <c r="A96" s="6" t="s">
         <v>90</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:41" s="8" customFormat="1">
       <c r="A97" s="6" t="s">
         <v>91</v>
       </c>
@@ -13818,7 +13818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:41" s="8" customFormat="1">
       <c r="A98" s="6" t="s">
         <v>48</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:41" s="8" customFormat="1">
       <c r="A99" s="6" t="s">
         <v>49</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:41" s="8" customFormat="1">
       <c r="A100" s="6" t="s">
         <v>50</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:41" s="8" customFormat="1">
       <c r="A101" s="6" t="s">
         <v>51</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:41" s="8" customFormat="1">
       <c r="A102" s="6" t="s">
         <v>52</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:41" s="8" customFormat="1">
       <c r="A103" s="6" t="s">
         <v>53</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:41" s="8" customFormat="1">
       <c r="A104" s="6" t="s">
         <v>54</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:41" s="8" customFormat="1">
       <c r="A105" s="6" t="s">
         <v>97</v>
       </c>
@@ -14818,7 +14818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:41" s="8" customFormat="1">
       <c r="A106" s="6" t="s">
         <v>98</v>
       </c>
@@ -14943,7 +14943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:41" s="8" customFormat="1">
       <c r="A107" s="6" t="s">
         <v>117</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:41" s="8" customFormat="1">
       <c r="A108" s="6" t="s">
         <v>94</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:41" s="8" customFormat="1">
       <c r="A109" s="6" t="s">
         <v>118</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:41" s="8" customFormat="1">
       <c r="A110" s="6" t="s">
         <v>138</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:41" s="8" customFormat="1">
       <c r="A111" s="6" t="s">
         <v>137</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:41" s="8" customFormat="1">
       <c r="A112" s="6" t="s">
         <v>120</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:41" s="8" customFormat="1">
       <c r="A113" s="6" t="s">
         <v>127</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:41" s="8" customFormat="1">
       <c r="A114" s="6" t="s">
         <v>128</v>
       </c>
@@ -15943,7 +15943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:41" s="8" customFormat="1">
       <c r="A115" s="6" t="s">
         <v>129</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:41" s="8" customFormat="1">
       <c r="A116" s="6" t="s">
         <v>130</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="117" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:41" s="8" customFormat="1">
       <c r="A117" s="6" t="s">
         <v>131</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:41" s="8" customFormat="1">
       <c r="A118" s="6" t="s">
         <v>121</v>
       </c>
@@ -16443,7 +16443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:41" s="8" customFormat="1">
       <c r="A119" s="6" t="s">
         <v>122</v>
       </c>
@@ -16568,7 +16568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:41" s="8" customFormat="1">
       <c r="A120" s="6" t="s">
         <v>123</v>
       </c>
@@ -16693,7 +16693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:41" s="8" customFormat="1">
       <c r="A121" s="6" t="s">
         <v>124</v>
       </c>
@@ -16818,7 +16818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:41" s="8" customFormat="1">
       <c r="A122" s="6" t="s">
         <v>125</v>
       </c>
@@ -16943,7 +16943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:41" s="8" customFormat="1">
       <c r="A123" s="6" t="s">
         <v>126</v>
       </c>
@@ -17068,7 +17068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:41">
       <c r="A124" s="6" t="s">
         <v>132</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:41">
       <c r="A125" s="6" t="s">
         <v>133</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:41">
       <c r="A126" s="6" t="s">
         <v>134</v>
       </c>
@@ -17443,7 +17443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:41">
       <c r="A127" s="6" t="s">
         <v>135</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:41">
       <c r="A128" s="3" t="s">
         <v>157</v>
       </c>
@@ -17693,7 +17693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:41">
       <c r="A129" s="3" t="s">
         <v>158</v>
       </c>
@@ -17818,7 +17818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:41">
       <c r="A130" s="3" t="s">
         <v>159</v>
       </c>
@@ -17943,7 +17943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:41">
       <c r="A131" s="3" t="s">
         <v>160</v>
       </c>
@@ -18068,7 +18068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:41">
       <c r="A132" s="3" t="s">
         <v>161</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:41">
       <c r="A133" s="3" t="s">
         <v>162</v>
       </c>
@@ -18318,7 +18318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:41">
       <c r="A134" s="1" t="s">
         <v>163</v>
       </c>
@@ -18443,7 +18443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:41">
       <c r="A135" s="1" t="s">
         <v>164</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:41">
       <c r="A136" s="1" t="s">
         <v>165</v>
       </c>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D027898B-2C6D-4E28-AF77-C7DB8317889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06A3399-79A0-4F41-94ED-D52490C4654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="-17430" windowWidth="24000" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constraints" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4280" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="176">
   <si>
     <t>init</t>
   </si>
@@ -555,6 +555,18 @@
   <si>
     <t>m_ui-&gt;actionUniteTwoShapes</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_doubleSpinBoxDistanceU</t>
+  </si>
+  <si>
+    <t>m_ui-&gt;actionMoveForward</t>
+  </si>
+  <si>
+    <t>m_ui-&gt;actionMoveBackward</t>
+  </si>
+  <si>
+    <t>m_ui-&gt;actionMoveToUOrigin</t>
   </si>
 </sst>
 </file>
@@ -1290,8 +1302,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO136">
-  <autoFilter ref="A1:AO136" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO139">
+  <autoFilter ref="A1:AO139" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="states" totalsRowLabel="Total" dataDxfId="40"/>
     <tableColumn id="22" xr3:uid="{64DA4EF6-7838-4458-9526-2EDCDDECD7E6}" name="property" dataDxfId="39"/>
@@ -1636,13 +1648,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO136"/>
+  <dimension ref="A1:AO140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J56" sqref="J56:S57"/>
+      <selection pane="bottomRight" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13820,7 +13832,7 @@
     </row>
     <row r="98" spans="1:41" s="8" customFormat="1">
       <c r="A98" s="6" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>151</v>
@@ -13945,7 +13957,7 @@
     </row>
     <row r="99" spans="1:41" s="8" customFormat="1">
       <c r="A99" s="6" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>151</v>
@@ -14053,10 +14065,10 @@
         <v>1</v>
       </c>
       <c r="AK99" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL99" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM99" s="7">
         <v>1</v>
@@ -14070,7 +14082,7 @@
     </row>
     <row r="100" spans="1:41" s="8" customFormat="1">
       <c r="A100" s="6" t="s">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>151</v>
@@ -14178,10 +14190,10 @@
         <v>1</v>
       </c>
       <c r="AK100" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL100" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM100" s="7">
         <v>1</v>
@@ -14195,7 +14207,7 @@
     </row>
     <row r="101" spans="1:41" s="8" customFormat="1">
       <c r="A101" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>151</v>
@@ -14294,10 +14306,10 @@
         <v>141</v>
       </c>
       <c r="AH101" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI101" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ101" s="7">
         <v>1</v>
@@ -14320,7 +14332,7 @@
     </row>
     <row r="102" spans="1:41" s="8" customFormat="1">
       <c r="A102" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>151</v>
@@ -14428,10 +14440,10 @@
         <v>1</v>
       </c>
       <c r="AK102" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL102" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM102" s="7">
         <v>1</v>
@@ -14445,7 +14457,7 @@
     </row>
     <row r="103" spans="1:41" s="8" customFormat="1">
       <c r="A103" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>151</v>
@@ -14553,10 +14565,10 @@
         <v>1</v>
       </c>
       <c r="AK103" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL103" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM103" s="7">
         <v>1</v>
@@ -14570,7 +14582,7 @@
     </row>
     <row r="104" spans="1:41" s="8" customFormat="1">
       <c r="A104" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>151</v>
@@ -14669,10 +14681,10 @@
         <v>141</v>
       </c>
       <c r="AH104" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI104" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ104" s="7">
         <v>1</v>
@@ -14695,7 +14707,7 @@
     </row>
     <row r="105" spans="1:41" s="8" customFormat="1">
       <c r="A105" s="6" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>151</v>
@@ -14820,7 +14832,7 @@
     </row>
     <row r="106" spans="1:41" s="8" customFormat="1">
       <c r="A106" s="6" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>151</v>
@@ -14945,7 +14957,7 @@
     </row>
     <row r="107" spans="1:41" s="8" customFormat="1">
       <c r="A107" s="6" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>151</v>
@@ -15070,7 +15082,7 @@
     </row>
     <row r="108" spans="1:41" s="8" customFormat="1">
       <c r="A108" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>151</v>
@@ -15195,7 +15207,7 @@
     </row>
     <row r="109" spans="1:41" s="8" customFormat="1">
       <c r="A109" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>151</v>
@@ -15320,7 +15332,7 @@
     </row>
     <row r="110" spans="1:41" s="8" customFormat="1">
       <c r="A110" s="6" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>151</v>
@@ -15428,7 +15440,7 @@
         <v>1</v>
       </c>
       <c r="AK110" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL110" s="7">
         <v>0</v>
@@ -15445,7 +15457,7 @@
     </row>
     <row r="111" spans="1:41" s="8" customFormat="1">
       <c r="A111" s="6" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>151</v>
@@ -15570,7 +15582,7 @@
     </row>
     <row r="112" spans="1:41" s="8" customFormat="1">
       <c r="A112" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>151</v>
@@ -15695,7 +15707,7 @@
     </row>
     <row r="113" spans="1:41" s="8" customFormat="1">
       <c r="A113" s="6" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>151</v>
@@ -15803,7 +15815,7 @@
         <v>1</v>
       </c>
       <c r="AK113" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL113" s="7">
         <v>0</v>
@@ -15820,7 +15832,7 @@
     </row>
     <row r="114" spans="1:41" s="8" customFormat="1">
       <c r="A114" s="6" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>151</v>
@@ -15945,7 +15957,7 @@
     </row>
     <row r="115" spans="1:41" s="8" customFormat="1">
       <c r="A115" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>151</v>
@@ -16070,7 +16082,7 @@
     </row>
     <row r="116" spans="1:41" s="8" customFormat="1">
       <c r="A116" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>151</v>
@@ -16081,20 +16093,20 @@
       <c r="D116" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E116" s="7">
-        <v>1</v>
-      </c>
-      <c r="F116" s="7">
-        <v>1</v>
-      </c>
-      <c r="G116" s="7">
-        <v>1</v>
-      </c>
-      <c r="H116" s="7">
-        <v>1</v>
-      </c>
-      <c r="I116" s="7">
-        <v>1</v>
+      <c r="E116" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="J116" s="7" t="s">
         <v>141</v>
@@ -16168,34 +16180,34 @@
       <c r="AG116" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="AH116" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI116" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ116" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK116" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL116" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM116" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN116" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO116" s="7" t="s">
-        <v>141</v>
+      <c r="AH116" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI116" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ116" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK116" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL116" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM116" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN116" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO116" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:41" s="8" customFormat="1">
       <c r="A117" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>151</v>
@@ -16320,7 +16332,7 @@
     </row>
     <row r="118" spans="1:41" s="8" customFormat="1">
       <c r="A118" s="6" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>151</v>
@@ -16440,12 +16452,12 @@
         <v>1</v>
       </c>
       <c r="AO118" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:41" s="8" customFormat="1">
       <c r="A119" s="6" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>151</v>
@@ -16456,20 +16468,20 @@
       <c r="D119" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E119" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>141</v>
+      <c r="E119" s="7">
+        <v>1</v>
+      </c>
+      <c r="F119" s="7">
+        <v>1</v>
+      </c>
+      <c r="G119" s="7">
+        <v>1</v>
+      </c>
+      <c r="H119" s="7">
+        <v>1</v>
+      </c>
+      <c r="I119" s="7">
+        <v>1</v>
       </c>
       <c r="J119" s="7" t="s">
         <v>141</v>
@@ -16543,34 +16555,34 @@
       <c r="AG119" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="AH119" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI119" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ119" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK119" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL119" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM119" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN119" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO119" s="7">
-        <v>0</v>
+      <c r="AH119" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI119" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ119" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK119" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL119" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM119" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN119" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO119" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:41" s="8" customFormat="1">
       <c r="A120" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>151</v>
@@ -16690,12 +16702,12 @@
         <v>1</v>
       </c>
       <c r="AO120" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:41" s="8" customFormat="1">
       <c r="A121" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>151</v>
@@ -16820,7 +16832,7 @@
     </row>
     <row r="122" spans="1:41" s="8" customFormat="1">
       <c r="A122" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>151</v>
@@ -16922,10 +16934,10 @@
         <v>0</v>
       </c>
       <c r="AI122" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ122" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK122" s="7">
         <v>0</v>
@@ -16934,18 +16946,18 @@
         <v>0</v>
       </c>
       <c r="AM122" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN122" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO122" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:41" s="8" customFormat="1">
       <c r="A123" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>151</v>
@@ -17068,9 +17080,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:41">
+    <row r="124" spans="1:41" s="8" customFormat="1">
       <c r="A124" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>151</v>
@@ -17190,12 +17202,12 @@
         <v>1</v>
       </c>
       <c r="AO124" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:41">
+    <row r="125" spans="1:41" s="8" customFormat="1">
       <c r="A125" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>151</v>
@@ -17312,15 +17324,15 @@
         <v>0</v>
       </c>
       <c r="AN125" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO125" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:41">
+    <row r="126" spans="1:41" s="8" customFormat="1">
       <c r="A126" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>151</v>
@@ -17421,8 +17433,8 @@
       <c r="AH126" s="7">
         <v>0</v>
       </c>
-      <c r="AI126" s="7" t="s">
-        <v>141</v>
+      <c r="AI126" s="7">
+        <v>1</v>
       </c>
       <c r="AJ126" s="7">
         <v>1</v>
@@ -17434,10 +17446,10 @@
         <v>0</v>
       </c>
       <c r="AM126" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN126" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO126" s="7">
         <v>0</v>
@@ -17445,7 +17457,7 @@
     </row>
     <row r="127" spans="1:41">
       <c r="A127" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>151</v>
@@ -17546,11 +17558,11 @@
       <c r="AH127" s="7">
         <v>0</v>
       </c>
-      <c r="AI127" s="7" t="s">
-        <v>141</v>
+      <c r="AI127" s="7">
+        <v>1</v>
       </c>
       <c r="AJ127" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK127" s="7">
         <v>0</v>
@@ -17559,132 +17571,132 @@
         <v>0</v>
       </c>
       <c r="AM127" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN127" s="7">
         <v>1</v>
       </c>
       <c r="AO127" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:41">
-      <c r="A128" s="3" t="s">
-        <v>157</v>
+      <c r="A128" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C128" s="2">
-        <v>0</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="S128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="T128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="U128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="W128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="X128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH128" s="2">
+      <c r="C128" s="7">
+        <v>0</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="O128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="R128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="S128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="T128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="V128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="W128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG128" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH128" s="7">
         <v>0</v>
       </c>
       <c r="AI128" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ128" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK128" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL128" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM128" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN128" s="7">
         <v>1</v>
@@ -17694,258 +17706,258 @@
       </c>
     </row>
     <row r="129" spans="1:41">
-      <c r="A129" s="3" t="s">
-        <v>158</v>
+      <c r="A129" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C129" s="2">
-        <v>0</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="S129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="T129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="U129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="W129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="X129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH129" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI129" s="7">
-        <v>1</v>
+      <c r="C129" s="7">
+        <v>0</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="O129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="R129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="S129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="T129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="V129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="W129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH129" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI129" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="AJ129" s="7">
         <v>1</v>
       </c>
       <c r="AK129" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL129" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM129" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN129" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO129" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:41">
-      <c r="A130" s="3" t="s">
-        <v>159</v>
+      <c r="A130" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C130" s="2">
-        <v>0</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="S130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="T130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="U130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="W130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="X130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH130" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI130" s="7">
-        <v>1</v>
+      <c r="C130" s="7">
+        <v>0</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="O130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="R130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="S130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="T130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="V130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="W130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH130" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI130" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="AJ130" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK130" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL130" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM130" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN130" s="7">
         <v>1</v>
       </c>
       <c r="AO130" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:41">
       <c r="A131" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>151</v>
@@ -18070,7 +18082,7 @@
     </row>
     <row r="132" spans="1:41">
       <c r="A132" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>151</v>
@@ -18195,7 +18207,7 @@
     </row>
     <row r="133" spans="1:41">
       <c r="A133" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>151</v>
@@ -18319,8 +18331,8 @@
       </c>
     </row>
     <row r="134" spans="1:41">
-      <c r="A134" s="1" t="s">
-        <v>163</v>
+      <c r="A134" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>151</v>
@@ -18444,8 +18456,8 @@
       </c>
     </row>
     <row r="135" spans="1:41">
-      <c r="A135" s="1" t="s">
-        <v>164</v>
+      <c r="A135" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>151</v>
@@ -18569,8 +18581,8 @@
       </c>
     </row>
     <row r="136" spans="1:41">
-      <c r="A136" s="1" t="s">
-        <v>165</v>
+      <c r="A136" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>151</v>
@@ -18690,16 +18702,516 @@
         <v>1</v>
       </c>
       <c r="AO136" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:41">
+      <c r="A137" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="V137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="W137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="X137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI137" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ137" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK137" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL137" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM137" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN137" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO137" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:41">
+      <c r="A138" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="V138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="W138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="X138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH138" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI138" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ138" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK138" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL138" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM138" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN138" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO138" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:41">
+      <c r="A139" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="V139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="W139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="X139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH139" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI139" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ139" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK139" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL139" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM139" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN139" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO139" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:41">
+      <c r="A140" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="V140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="W140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="X140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH140" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI140" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ140" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK140" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL140" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM140" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN140" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO140" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AO136" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AO140" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
       <formula1>"-,0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B136" xr:uid="{F7C9610C-D5FB-4D70-AEEE-43376E70EDF9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B140" xr:uid="{F7C9610C-D5FB-4D70-AEEE-43376E70EDF9}">
       <formula1>"enabled,checked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06A3399-79A0-4F41-94ED-D52490C4654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B932388-18FA-4007-AFFC-24132013086D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constraints" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4280" uniqueCount="172">
   <si>
     <t>init</t>
   </si>
@@ -524,15 +524,6 @@
     <t>Config::UserRegister::spotShotPowerItem()</t>
   </si>
   <si>
-    <t>m_doubleSpinBoxDistanceX</t>
-  </si>
-  <si>
-    <t>m_doubleSpinBoxDistanceY</t>
-  </si>
-  <si>
-    <t>m_doubleSpinBoxDistanceZ</t>
-  </si>
-  <si>
     <t>m_ui-&gt;actionCut</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -555,9 +546,6 @@
   <si>
     <t>m_ui-&gt;actionUniteTwoShapes</t>
     <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_doubleSpinBoxDistanceU</t>
   </si>
   <si>
     <t>m_ui-&gt;actionMoveForward</t>
@@ -1302,8 +1290,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO139">
-  <autoFilter ref="A1:AO139" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO136">
+  <autoFilter ref="A1:AO136" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="states" totalsRowLabel="Total" dataDxfId="40"/>
     <tableColumn id="22" xr3:uid="{64DA4EF6-7838-4458-9526-2EDCDDECD7E6}" name="property" dataDxfId="39"/>
@@ -1648,13 +1636,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO140"/>
+  <dimension ref="A1:AO136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A95" sqref="A95"/>
+      <selection pane="bottomRight" activeCell="A137" sqref="A137:XFD140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7582,10 +7570,10 @@
     </row>
     <row r="48" spans="1:41">
       <c r="A48" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -7707,10 +7695,10 @@
     </row>
     <row r="49" spans="1:41">
       <c r="A49" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -7832,7 +7820,7 @@
     </row>
     <row r="50" spans="1:41">
       <c r="A50" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>151</v>
@@ -9207,7 +9195,7 @@
     </row>
     <row r="61" spans="1:41">
       <c r="A61" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>151</v>
@@ -10710,7 +10698,7 @@
         <v>112</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -10832,7 +10820,7 @@
     </row>
     <row r="74" spans="1:41">
       <c r="A74" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>151</v>
@@ -13832,7 +13820,7 @@
     </row>
     <row r="98" spans="1:41" s="8" customFormat="1">
       <c r="A98" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>151</v>
@@ -13957,7 +13945,7 @@
     </row>
     <row r="99" spans="1:41" s="8" customFormat="1">
       <c r="A99" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>151</v>
@@ -14082,7 +14070,7 @@
     </row>
     <row r="100" spans="1:41" s="8" customFormat="1">
       <c r="A100" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>151</v>
@@ -18705,513 +18693,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:41">
-      <c r="A137" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C137" s="2">
-        <v>0</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="S137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="T137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="U137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="W137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="X137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH137" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI137" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ137" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK137" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL137" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM137" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN137" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO137" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:41">
-      <c r="A138" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C138" s="2">
-        <v>0</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="S138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="T138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="U138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="W138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="X138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH138" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI138" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ138" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK138" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL138" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM138" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN138" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO138" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:41">
-      <c r="A139" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C139" s="2">
-        <v>0</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="S139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="T139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="U139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="W139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="X139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH139" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI139" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ139" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK139" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL139" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM139" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN139" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO139" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:41">
-      <c r="A140" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C140" s="2">
-        <v>0</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="S140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="T140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="U140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="W140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="X140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH140" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI140" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ140" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK140" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL140" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM140" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN140" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO140" s="7">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AO140" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AO136" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
       <formula1>"-,0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B140" xr:uid="{F7C9610C-D5FB-4D70-AEEE-43376E70EDF9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B136" xr:uid="{F7C9610C-D5FB-4D70-AEEE-43376E70EDF9}">
       <formula1>"enabled,checked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_01\C++\Product\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67E1B71-F48C-480D-BF35-E5D1C01834BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7724246-E6D7-4BE6-9645-93E3D239CC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="27648" windowHeight="14664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="228" yWindow="1512" windowWidth="27648" windowHeight="14664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constraints" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4329" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4346" uniqueCount="174">
   <si>
     <t>init</t>
   </si>
@@ -559,6 +559,9 @@
   <si>
     <t>m_ui-&gt;actionWeldAllShapes</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_toolButtonStampTool</t>
   </si>
 </sst>
 </file>
@@ -1294,8 +1297,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO137">
-  <autoFilter ref="A1:AO137" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO138">
+  <autoFilter ref="A1:AO138" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="states" totalsRowLabel="Total" dataDxfId="40"/>
     <tableColumn id="22" xr3:uid="{64DA4EF6-7838-4458-9526-2EDCDDECD7E6}" name="property" dataDxfId="39"/>
@@ -1640,13 +1643,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO137"/>
+  <dimension ref="A1:AO138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A74" sqref="A74"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -18822,13 +18825,92 @@
         <v>1</v>
       </c>
     </row>
+    <row r="138" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S138" s="2"/>
+      <c r="T138" s="2"/>
+      <c r="U138" s="2"/>
+      <c r="V138" s="2"/>
+      <c r="W138" s="2"/>
+      <c r="X138" s="2"/>
+      <c r="Y138" s="2"/>
+      <c r="Z138" s="2"/>
+      <c r="AA138" s="2"/>
+      <c r="AB138" s="2"/>
+      <c r="AC138" s="2"/>
+      <c r="AD138" s="2"/>
+      <c r="AE138" s="2"/>
+      <c r="AF138" s="2"/>
+      <c r="AG138" s="2"/>
+      <c r="AH138" s="2"/>
+      <c r="AI138" s="7"/>
+      <c r="AJ138" s="2"/>
+      <c r="AK138" s="2"/>
+      <c r="AL138" s="2"/>
+      <c r="AM138" s="2"/>
+      <c r="AN138" s="2"/>
+      <c r="AO138" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AO137" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AO138" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
       <formula1>"-,0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B137" xr:uid="{F7C9610C-D5FB-4D70-AEEE-43376E70EDF9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B138" xr:uid="{F7C9610C-D5FB-4D70-AEEE-43376E70EDF9}">
       <formula1>"enabled,checked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/res/constraints.xlsx
+++ b/res/constraints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_01\C++\Product\LaserController\LaserController\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7724246-E6D7-4BE6-9645-93E3D239CC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C261C3F-A713-440D-863D-5E72B21B4A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="1512" windowWidth="27648" windowHeight="14664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5250" yWindow="-18150" windowWidth="24270" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constraints" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4346" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4233" uniqueCount="170">
   <si>
     <t>init</t>
   </si>
@@ -524,15 +524,6 @@
     <t>Config::UserRegister::spotShotPowerItem()</t>
   </si>
   <si>
-    <t>m_doubleSpinBoxDistanceX</t>
-  </si>
-  <si>
-    <t>m_doubleSpinBoxDistanceY</t>
-  </si>
-  <si>
-    <t>m_doubleSpinBoxDistanceZ</t>
-  </si>
-  <si>
     <t>m_ui-&gt;actionCut</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -560,33 +551,30 @@
     <t>m_ui-&gt;actionWeldAllShapes</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
-  <si>
-    <t>m_toolButtonStampTool</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -594,7 +582,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -602,7 +590,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -610,35 +598,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -646,7 +634,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -654,14 +642,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -669,14 +657,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -684,7 +672,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -692,27 +680,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1083,48 +1071,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="41">
     <dxf>
@@ -1297,8 +1285,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO138">
-  <autoFilter ref="A1:AO138" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO134">
+  <autoFilter ref="A1:AO134" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="states" totalsRowLabel="Total" dataDxfId="40"/>
     <tableColumn id="22" xr3:uid="{64DA4EF6-7838-4458-9526-2EDCDDECD7E6}" name="property" dataDxfId="39"/>
@@ -1347,7 +1335,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1643,64 +1631,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO138"/>
+  <dimension ref="A1:AO134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
+      <selection pane="bottomRight" activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.88671875" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="30" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="32" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="31" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="32" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="31" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="31.109375" customWidth="1"/>
-    <col min="45" max="45" width="30.33203125" customWidth="1"/>
+    <col min="44" max="44" width="31.140625" customWidth="1"/>
+    <col min="45" max="45" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
@@ -1825,7 +1813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
@@ -1950,7 +1938,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -2075,7 +2063,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
@@ -2200,7 +2188,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -2325,7 +2313,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41">
       <c r="A6" s="1" t="s">
         <v>92</v>
       </c>
@@ -2450,7 +2438,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
@@ -2575,7 +2563,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41">
       <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
@@ -2700,7 +2688,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41">
       <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
@@ -2825,7 +2813,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
@@ -2950,7 +2938,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -3075,7 +3063,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41">
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
@@ -3200,7 +3188,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41">
       <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
@@ -3325,7 +3313,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -3450,7 +3438,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -3575,7 +3563,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -3700,7 +3688,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -3825,7 +3813,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -3950,7 +3938,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -4075,7 +4063,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -4200,7 +4188,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -4325,7 +4313,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -4450,7 +4438,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -4575,7 +4563,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -4700,7 +4688,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -4825,7 +4813,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
@@ -4950,7 +4938,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -5075,7 +5063,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -5200,7 +5188,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -5325,7 +5313,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -5450,7 +5438,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
@@ -5575,7 +5563,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
@@ -5700,7 +5688,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
@@ -5825,7 +5813,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41">
       <c r="A34" s="1" t="s">
         <v>93</v>
       </c>
@@ -5950,7 +5938,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" s="5" customFormat="1">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -6075,7 +6063,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" s="5" customFormat="1">
       <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
@@ -6200,7 +6188,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" s="5" customFormat="1">
       <c r="A37" s="3" t="s">
         <v>40</v>
       </c>
@@ -6325,7 +6313,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" s="5" customFormat="1">
       <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
@@ -6450,7 +6438,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" s="5" customFormat="1">
       <c r="A39" s="3" t="s">
         <v>42</v>
       </c>
@@ -6575,7 +6563,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" s="5" customFormat="1">
       <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
@@ -6700,7 +6688,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" s="5" customFormat="1">
       <c r="A41" s="3" t="s">
         <v>44</v>
       </c>
@@ -6825,7 +6813,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" s="5" customFormat="1">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -6950,7 +6938,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" s="5" customFormat="1">
       <c r="A43" s="3" t="s">
         <v>93</v>
       </c>
@@ -7075,7 +7063,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41">
       <c r="A44" s="3" t="s">
         <v>104</v>
       </c>
@@ -7200,7 +7188,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -7325,7 +7313,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
@@ -7450,7 +7438,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -7575,12 +7563,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41">
       <c r="A48" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -7700,12 +7688,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41">
       <c r="A49" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -7825,9 +7813,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41">
       <c r="A50" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>151</v>
@@ -7950,7 +7938,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41">
       <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
@@ -8075,7 +8063,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -8200,7 +8188,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41">
       <c r="A53" s="1" t="s">
         <v>116</v>
       </c>
@@ -8325,7 +8313,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -8450,7 +8438,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41">
       <c r="A55" s="1" t="s">
         <v>75</v>
       </c>
@@ -8575,7 +8563,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41">
       <c r="A56" s="1" t="s">
         <v>76</v>
       </c>
@@ -8700,7 +8688,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41">
       <c r="A57" s="1" t="s">
         <v>77</v>
       </c>
@@ -8825,7 +8813,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41">
       <c r="A58" s="1" t="s">
         <v>95</v>
       </c>
@@ -8950,7 +8938,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41">
       <c r="A59" s="1" t="s">
         <v>96</v>
       </c>
@@ -9075,7 +9063,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41">
       <c r="A60" s="1" t="s">
         <v>155</v>
       </c>
@@ -9200,9 +9188,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41">
       <c r="A61" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>151</v>
@@ -9325,7 +9313,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41">
       <c r="A62" s="1" t="s">
         <v>100</v>
       </c>
@@ -9450,7 +9438,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41">
       <c r="A63" s="1" t="s">
         <v>101</v>
       </c>
@@ -9575,7 +9563,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41">
       <c r="A64" s="1" t="s">
         <v>102</v>
       </c>
@@ -9700,7 +9688,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:41">
       <c r="A65" s="1" t="s">
         <v>103</v>
       </c>
@@ -9825,7 +9813,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:41">
       <c r="A66" s="1" t="s">
         <v>105</v>
       </c>
@@ -9950,7 +9938,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:41">
       <c r="A67" s="1" t="s">
         <v>106</v>
       </c>
@@ -10075,7 +10063,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:41">
       <c r="A68" s="1" t="s">
         <v>107</v>
       </c>
@@ -10200,7 +10188,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:41">
       <c r="A69" s="1" t="s">
         <v>108</v>
       </c>
@@ -10325,7 +10313,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:41">
       <c r="A70" s="1" t="s">
         <v>109</v>
       </c>
@@ -10450,7 +10438,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:41">
       <c r="A71" s="1" t="s">
         <v>110</v>
       </c>
@@ -10575,7 +10563,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:41">
       <c r="A72" s="1" t="s">
         <v>111</v>
       </c>
@@ -10700,12 +10688,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:41">
       <c r="A73" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -10825,9 +10813,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:41">
       <c r="A74" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>151</v>
@@ -10950,9 +10938,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:41">
       <c r="A75" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>151</v>
@@ -11075,7 +11063,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:41">
       <c r="A76" s="1" t="s">
         <v>113</v>
       </c>
@@ -11200,7 +11188,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:41" s="8" customFormat="1">
       <c r="A77" s="1" t="s">
         <v>114</v>
       </c>
@@ -11325,7 +11313,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:41" s="8" customFormat="1">
       <c r="A78" s="1" t="s">
         <v>115</v>
       </c>
@@ -11450,7 +11438,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:41" s="8" customFormat="1">
       <c r="A79" s="1" t="s">
         <v>136</v>
       </c>
@@ -11575,7 +11563,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="80" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:41" s="8" customFormat="1">
       <c r="A80" s="1" t="s">
         <v>119</v>
       </c>
@@ -11700,7 +11688,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:41" s="8" customFormat="1">
       <c r="A81" s="6" t="s">
         <v>78</v>
       </c>
@@ -11825,7 +11813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:41" s="8" customFormat="1">
       <c r="A82" s="6" t="s">
         <v>64</v>
       </c>
@@ -11950,7 +11938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:41" s="8" customFormat="1">
       <c r="A83" s="6" t="s">
         <v>65</v>
       </c>
@@ -12075,7 +12063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:41" s="8" customFormat="1">
       <c r="A84" s="6" t="s">
         <v>56</v>
       </c>
@@ -12200,7 +12188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:41" s="8" customFormat="1">
       <c r="A85" s="6" t="s">
         <v>57</v>
       </c>
@@ -12325,7 +12313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:41" s="8" customFormat="1">
       <c r="A86" s="6" t="s">
         <v>79</v>
       </c>
@@ -12450,7 +12438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:41" s="8" customFormat="1">
       <c r="A87" s="6" t="s">
         <v>80</v>
       </c>
@@ -12575,7 +12563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:41" s="8" customFormat="1">
       <c r="A88" s="6" t="s">
         <v>81</v>
       </c>
@@ -12700,7 +12688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:41" s="8" customFormat="1">
       <c r="A89" s="6" t="s">
         <v>82</v>
       </c>
@@ -12825,7 +12813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:41" s="8" customFormat="1">
       <c r="A90" s="6" t="s">
         <v>83</v>
       </c>
@@ -12950,7 +12938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:41" s="8" customFormat="1">
       <c r="A91" s="6" t="s">
         <v>84</v>
       </c>
@@ -13075,7 +13063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:41" s="8" customFormat="1">
       <c r="A92" s="6" t="s">
         <v>85</v>
       </c>
@@ -13200,7 +13188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:41" s="8" customFormat="1">
       <c r="A93" s="6" t="s">
         <v>86</v>
       </c>
@@ -13325,7 +13313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:41" s="8" customFormat="1">
       <c r="A94" s="6" t="s">
         <v>87</v>
       </c>
@@ -13450,7 +13438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:41" s="8" customFormat="1">
       <c r="A95" s="6" t="s">
         <v>88</v>
       </c>
@@ -13575,7 +13563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:41" s="8" customFormat="1">
       <c r="A96" s="6" t="s">
         <v>89</v>
       </c>
@@ -13700,7 +13688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:41" s="8" customFormat="1">
       <c r="A97" s="6" t="s">
         <v>90</v>
       </c>
@@ -13825,7 +13813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:41" s="8" customFormat="1">
       <c r="A98" s="6" t="s">
         <v>91</v>
       </c>
@@ -13950,7 +13938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:41" s="8" customFormat="1">
       <c r="A99" s="6" t="s">
         <v>48</v>
       </c>
@@ -14075,7 +14063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:41" s="8" customFormat="1">
       <c r="A100" s="6" t="s">
         <v>49</v>
       </c>
@@ -14200,7 +14188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:41" s="8" customFormat="1">
       <c r="A101" s="6" t="s">
         <v>50</v>
       </c>
@@ -14325,7 +14313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:41" s="8" customFormat="1">
       <c r="A102" s="6" t="s">
         <v>51</v>
       </c>
@@ -14450,7 +14438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:41" s="8" customFormat="1">
       <c r="A103" s="6" t="s">
         <v>52</v>
       </c>
@@ -14575,7 +14563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:41" s="8" customFormat="1">
       <c r="A104" s="6" t="s">
         <v>53</v>
       </c>
@@ -14700,7 +14688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:41" s="8" customFormat="1">
       <c r="A105" s="6" t="s">
         <v>54</v>
       </c>
@@ -14825,7 +14813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:41" s="8" customFormat="1">
       <c r="A106" s="6" t="s">
         <v>97</v>
       </c>
@@ -14950,7 +14938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:41" s="8" customFormat="1">
       <c r="A107" s="6" t="s">
         <v>98</v>
       </c>
@@ -15075,7 +15063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:41" s="8" customFormat="1">
       <c r="A108" s="6" t="s">
         <v>117</v>
       </c>
@@ -15200,7 +15188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:41" s="8" customFormat="1">
       <c r="A109" s="6" t="s">
         <v>94</v>
       </c>
@@ -15325,7 +15313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:41" s="8" customFormat="1">
       <c r="A110" s="6" t="s">
         <v>118</v>
       </c>
@@ -15450,7 +15438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:41" s="8" customFormat="1">
       <c r="A111" s="6" t="s">
         <v>138</v>
       </c>
@@ -15575,7 +15563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:41" s="8" customFormat="1">
       <c r="A112" s="6" t="s">
         <v>137</v>
       </c>
@@ -15700,7 +15688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:41" s="8" customFormat="1">
       <c r="A113" s="6" t="s">
         <v>120</v>
       </c>
@@ -15825,7 +15813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:41" s="8" customFormat="1">
       <c r="A114" s="6" t="s">
         <v>127</v>
       </c>
@@ -15950,7 +15938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:41" s="8" customFormat="1">
       <c r="A115" s="6" t="s">
         <v>128</v>
       </c>
@@ -16075,7 +16063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:41" s="8" customFormat="1">
       <c r="A116" s="6" t="s">
         <v>129</v>
       </c>
@@ -16200,7 +16188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:41" s="8" customFormat="1">
       <c r="A117" s="6" t="s">
         <v>130</v>
       </c>
@@ -16325,7 +16313,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="118" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:41" s="8" customFormat="1">
       <c r="A118" s="6" t="s">
         <v>131</v>
       </c>
@@ -16450,7 +16438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:41" s="8" customFormat="1">
       <c r="A119" s="6" t="s">
         <v>121</v>
       </c>
@@ -16575,7 +16563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:41" s="8" customFormat="1">
       <c r="A120" s="6" t="s">
         <v>122</v>
       </c>
@@ -16700,7 +16688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:41" s="8" customFormat="1">
       <c r="A121" s="6" t="s">
         <v>123</v>
       </c>
@@ -16825,7 +16813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:41" s="8" customFormat="1">
       <c r="A122" s="6" t="s">
         <v>124</v>
       </c>
@@ -16950,7 +16938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:41" s="8" customFormat="1">
       <c r="A123" s="6" t="s">
         <v>125</v>
       </c>
@@ -17075,7 +17063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:41" s="8" customFormat="1">
       <c r="A124" s="6" t="s">
         <v>126</v>
       </c>
@@ -17200,7 +17188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:41">
       <c r="A125" s="6" t="s">
         <v>132</v>
       </c>
@@ -17325,7 +17313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:41">
       <c r="A126" s="6" t="s">
         <v>133</v>
       </c>
@@ -17450,7 +17438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:41">
       <c r="A127" s="6" t="s">
         <v>134</v>
       </c>
@@ -17575,7 +17563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:41">
       <c r="A128" s="6" t="s">
         <v>135</v>
       </c>
@@ -17700,7 +17688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:41">
       <c r="A129" s="3" t="s">
         <v>157</v>
       </c>
@@ -17825,7 +17813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:41">
       <c r="A130" s="3" t="s">
         <v>158</v>
       </c>
@@ -17950,7 +17938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:41">
       <c r="A131" s="3" t="s">
         <v>159</v>
       </c>
@@ -18075,7 +18063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:41">
       <c r="A132" s="3" t="s">
         <v>160</v>
       </c>
@@ -18200,7 +18188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:41">
       <c r="A133" s="3" t="s">
         <v>161</v>
       </c>
@@ -18325,7 +18313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:41">
       <c r="A134" s="3" t="s">
         <v>162</v>
       </c>
@@ -18449,468 +18437,14 @@
       <c r="AO134" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C135" s="2">
-        <v>0</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="S135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="T135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="U135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="W135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="X135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG135" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH135" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI135" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ135" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK135" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL135" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM135" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN135" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO135" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C136" s="2">
-        <v>0</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="S136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="T136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="U136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="W136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="X136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH136" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI136" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ136" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK136" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL136" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM136" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN136" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO136" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C137" s="2">
-        <v>0</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="S137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="T137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="U137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="W137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="X137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG137" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH137" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI137" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ137" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK137" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL137" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM137" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN137" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO137" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C138" s="2">
-        <v>0</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="S138" s="2"/>
-      <c r="T138" s="2"/>
-      <c r="U138" s="2"/>
-      <c r="V138" s="2"/>
-      <c r="W138" s="2"/>
-      <c r="X138" s="2"/>
-      <c r="Y138" s="2"/>
-      <c r="Z138" s="2"/>
-      <c r="AA138" s="2"/>
-      <c r="AB138" s="2"/>
-      <c r="AC138" s="2"/>
-      <c r="AD138" s="2"/>
-      <c r="AE138" s="2"/>
-      <c r="AF138" s="2"/>
-      <c r="AG138" s="2"/>
-      <c r="AH138" s="2"/>
-      <c r="AI138" s="7"/>
-      <c r="AJ138" s="2"/>
-      <c r="AK138" s="2"/>
-      <c r="AL138" s="2"/>
-      <c r="AM138" s="2"/>
-      <c r="AN138" s="2"/>
-      <c r="AO138" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AO138" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AO134" xr:uid="{50947E89-95F1-4156-B43C-D543E8BCF2EE}">
       <formula1>"-,0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B138" xr:uid="{F7C9610C-D5FB-4D70-AEEE-43376E70EDF9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B134" xr:uid="{F7C9610C-D5FB-4D70-AEEE-43376E70EDF9}">
       <formula1>"enabled,checked"</formula1>
     </dataValidation>
   </dataValidations>
